--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="53">
   <si>
     <t>Artist</t>
   </si>
@@ -36,39 +36,87 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>AREA21, Martin Garrix, Maejor</t>
+  </si>
+  <si>
     <t>Subshock &amp; Evangelos, MIDNIGHT CVLT</t>
   </si>
   <si>
     <t>DISTO, Todd Helder</t>
   </si>
   <si>
+    <t>Tiësto, SWACQ</t>
+  </si>
+  <si>
     <t>Don Diablo</t>
   </si>
   <si>
+    <t>Curbi</t>
+  </si>
+  <si>
     <t>Dirty Palm, CRVN</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
+    <t>Sia, David Guetta, Jordy Wess</t>
+  </si>
+  <si>
+    <t>Aiobahn, Mick Mazoo</t>
+  </si>
+  <si>
+    <t>La La La</t>
+  </si>
+  <si>
     <t>Beyond The Skies</t>
   </si>
   <si>
     <t>DISTODD</t>
   </si>
   <si>
+    <t>The Business (SWACQ Remix)</t>
+  </si>
+  <si>
     <t>Eyes Closed</t>
   </si>
   <si>
+    <t>Breathe</t>
+  </si>
+  <si>
     <t>Alibi</t>
   </si>
   <si>
+    <t>Gangplank Galleon</t>
+  </si>
+  <si>
+    <t>Floating Through Space (Jordy Wess Remix)</t>
+  </si>
+  <si>
+    <t>Never Go Back</t>
+  </si>
+  <si>
+    <t>STMPD RCRDS, Hollywood Records</t>
+  </si>
+  <si>
     <t>NCS</t>
   </si>
   <si>
+    <t>Musical Freedom, Atlantic Records</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
+    <t>STMPD RCRDS</t>
+  </si>
+  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -78,6 +126,15 @@
     <t>Soundcloud_Plays</t>
   </si>
   <si>
+    <t>AREA21</t>
+  </si>
+  <si>
+    <t>Maejor</t>
+  </si>
+  <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
     <t>MIDNIGHT CVLT</t>
   </si>
   <si>
@@ -90,10 +147,40 @@
     <t>Todd Helder</t>
   </si>
   <si>
+    <t>SWACQ</t>
+  </si>
+  <si>
+    <t>Tiësto</t>
+  </si>
+  <si>
     <t>CRVN</t>
   </si>
   <si>
     <t>Dirty Palm</t>
+  </si>
+  <si>
+    <t>David Guetta</t>
+  </si>
+  <si>
+    <t>Jordy Wess</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Aiobahn</t>
+  </si>
+  <si>
+    <t>Mick Mazoo</t>
+  </si>
+  <si>
+    <t>Hollywood Records</t>
+  </si>
+  <si>
+    <t>Atlantic Records</t>
+  </si>
+  <si>
+    <t>Musical Freedom</t>
   </si>
 </sst>
 </file>
@@ -451,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>385568</v>
+        <v>886347</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -490,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>183700</v>
+        <v>503286</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -504,13 +591,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>62437</v>
+        <v>496354</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -518,13 +605,97 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>215144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>86741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>75122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>68885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>61170</v>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>61493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>31687</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -551,77 +722,179 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -632,7 +905,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -649,62 +922,146 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>11914</v>
+        <v>22916</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>6941</v>
+        <v>21967</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>1959</v>
+        <v>19801</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>18783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>15665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>9461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
@@ -714,6 +1071,585 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>886347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>886347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>886347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>503286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>503286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>496354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>496354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>215144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>215144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>86741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>75122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>68885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>68885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>61493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>31687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>31687</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>22916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>21967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>21967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>19801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>19801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>19801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>18783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>18783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>15665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>15665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>9461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>9461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -723,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -731,58 +1667,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>385568</v>
+        <v>999640</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>385568</v>
+        <v>918034</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B4">
-        <v>183700</v>
+        <v>886347</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>183700</v>
+        <v>215144</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>62437</v>
+        <v>215144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>61170</v>
+        <v>86741</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>61170</v>
+        <v>75122</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +1726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -800,84 +1736,84 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -891,7 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -901,185 +1837,65 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>11914</v>
+        <v>37632</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>11914</v>
+        <v>25414</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>6941</v>
+        <v>22916</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>6941</v>
+        <v>19801</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>1959</v>
+        <v>18783</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>1959</v>
+        <v>18783</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>569268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>62437</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>69</v>
-      </c>
-      <c r="C2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>13873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
         <v>0</v>
       </c>
     </row>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
   <si>
     <t>Artist</t>
   </si>
@@ -39,12 +39,12 @@
     <t>AREA21, Martin Garrix, Maejor</t>
   </si>
   <si>
+    <t>DISTO, Todd Helder</t>
+  </si>
+  <si>
     <t>Subshock &amp; Evangelos, MIDNIGHT CVLT</t>
   </si>
   <si>
-    <t>DISTO, Todd Helder</t>
-  </si>
-  <si>
     <t>Tiësto, SWACQ</t>
   </si>
   <si>
@@ -60,21 +60,27 @@
     <t>insaneintherainmusic</t>
   </si>
   <si>
+    <t>Aiobahn, Mick Mazoo</t>
+  </si>
+  <si>
     <t>Sia, David Guetta, Jordy Wess</t>
   </si>
   <si>
-    <t>Aiobahn, Mick Mazoo</t>
+    <t>CloudNone</t>
+  </si>
+  <si>
+    <t>BLK RSE, KAAZE</t>
   </si>
   <si>
     <t>La La La</t>
   </si>
   <si>
+    <t>DISTODD</t>
+  </si>
+  <si>
     <t>Beyond The Skies</t>
   </si>
   <si>
-    <t>DISTODD</t>
-  </si>
-  <si>
     <t>The Business (SWACQ Remix)</t>
   </si>
   <si>
@@ -90,10 +96,16 @@
     <t>Gangplank Galleon</t>
   </si>
   <si>
+    <t>Never Go Back</t>
+  </si>
+  <si>
     <t>Floating Through Space (Jordy Wess Remix)</t>
   </si>
   <si>
-    <t>Never Go Back</t>
+    <t>Dizzy Lifted</t>
+  </si>
+  <si>
+    <t>Silence (KAAZE Mix)</t>
   </si>
   <si>
     <t>STMPD RCRDS, Hollywood Records</t>
@@ -117,6 +129,9 @@
     <t>STMPD RCRDS</t>
   </si>
   <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -135,18 +150,18 @@
     <t>Martin Garrix</t>
   </si>
   <si>
+    <t>DISTO</t>
+  </si>
+  <si>
+    <t>Todd Helder</t>
+  </si>
+  <si>
     <t>MIDNIGHT CVLT</t>
   </si>
   <si>
     <t>Subshock &amp; Evangelos</t>
   </si>
   <si>
-    <t>DISTO</t>
-  </si>
-  <si>
-    <t>Todd Helder</t>
-  </si>
-  <si>
     <t>SWACQ</t>
   </si>
   <si>
@@ -159,6 +174,12 @@
     <t>Dirty Palm</t>
   </si>
   <si>
+    <t>Aiobahn</t>
+  </si>
+  <si>
+    <t>Mick Mazoo</t>
+  </si>
+  <si>
     <t>David Guetta</t>
   </si>
   <si>
@@ -168,10 +189,10 @@
     <t>Sia</t>
   </si>
   <si>
-    <t>Aiobahn</t>
-  </si>
-  <si>
-    <t>Mick Mazoo</t>
+    <t>BLK RSE</t>
+  </si>
+  <si>
+    <t>KAAZE</t>
   </si>
   <si>
     <t>Hollywood Records</t>
@@ -538,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,13 +584,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>886347</v>
+        <v>1679240</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -577,13 +598,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>503286</v>
+        <v>632640</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -591,13 +612,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>496354</v>
+        <v>596559</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -605,13 +626,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>215144</v>
+        <v>230076</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -619,13 +640,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>86741</v>
+        <v>103671</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -633,13 +654,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>75122</v>
+        <v>90573</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -647,13 +668,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>68885</v>
+        <v>75673</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -661,13 +682,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>61493</v>
+        <v>72724</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -675,13 +696,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>42023</v>
+        <v>71776</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -689,13 +710,41 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>31687</v>
+        <v>51241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>21084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>10915</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -722,10 +771,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -733,33 +782,33 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -767,95 +816,95 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -866,10 +915,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -883,10 +932,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -895,6 +944,40 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
@@ -905,7 +988,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -922,77 +1005,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
       <c r="D2">
-        <v>22916</v>
+        <v>46367</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>21967</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>19801</v>
+        <v>27387</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>18783</v>
+        <v>23879</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>15665</v>
+        <v>23090</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1000,13 +1083,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>9461</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1014,13 +1097,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>6843</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1028,40 +1111,68 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>5613</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
@@ -1072,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1088,74 +1199,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>886347</v>
+        <v>1679240</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>886347</v>
+        <v>1679240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>886347</v>
+        <v>1679240</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>503286</v>
+        <v>632640</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>503286</v>
+        <v>632640</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>496354</v>
+        <v>596559</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>496354</v>
+        <v>596559</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>215144</v>
+        <v>230076</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>215144</v>
+        <v>230076</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1163,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>86741</v>
+        <v>103671</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1171,23 +1282,23 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>75122</v>
+        <v>90573</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B13">
-        <v>68885</v>
+        <v>75673</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B14">
-        <v>68885</v>
+        <v>75673</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1195,47 +1306,71 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>61493</v>
+        <v>72724</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B16">
-        <v>42023</v>
+        <v>71776</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B17">
-        <v>42023</v>
+        <v>71776</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B18">
-        <v>42023</v>
+        <v>51241</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>31687</v>
+        <v>51241</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>31687</v>
+        <v>51241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>21084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>10915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>10915</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1256,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1267,32 +1402,32 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1300,59 +1435,59 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1363,40 +1498,40 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1407,7 +1542,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1418,7 +1553,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1429,7 +1564,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1440,7 +1575,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1451,7 +1586,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1462,12 +1597,45 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>0</v>
       </c>
     </row>
@@ -1478,7 +1646,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1489,158 +1657,182 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>22916</v>
+        <v>46367</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>21967</v>
+        <v>46367</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>21967</v>
+        <v>46367</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>19801</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>19801</v>
+        <v>27387</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>19801</v>
+        <v>27387</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>18783</v>
+        <v>23879</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>18783</v>
+        <v>23879</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>15665</v>
+        <v>23090</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B11">
-        <v>15665</v>
+        <v>23090</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>9461</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13">
-        <v>9461</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>6843</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B15">
-        <v>6843</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B16">
-        <v>6843</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17">
-        <v>5613</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B18">
-        <v>5613</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20">
+      <c r="B23">
         <v>0</v>
       </c>
     </row>
@@ -1651,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1667,58 +1859,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>999640</v>
+        <v>1751016</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>918034</v>
+        <v>1679240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>886347</v>
+        <v>1229199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>215144</v>
+        <v>230076</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>215144</v>
+        <v>230076</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>86741</v>
+        <v>111657</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>75122</v>
+        <v>103671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>10915</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1739,59 +1939,59 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1802,23 +2002,34 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
@@ -1829,7 +2040,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1840,62 +2051,70 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>37632</v>
+        <v>57721</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>25414</v>
+        <v>51266</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>22916</v>
+        <v>46367</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>19801</v>
+        <v>37506</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>18783</v>
+        <v>23090</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>18783</v>
+        <v>23090</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B8">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="79">
   <si>
     <t>Artist</t>
   </si>
@@ -48,30 +48,48 @@
     <t>Tiësto, SWACQ</t>
   </si>
   <si>
+    <t>Porter Robinson</t>
+  </si>
+  <si>
     <t>Don Diablo</t>
   </si>
   <si>
     <t>Curbi</t>
   </si>
   <si>
+    <t>Aiobahn, Mick Mazoo</t>
+  </si>
+  <si>
     <t>Dirty Palm, CRVN</t>
   </si>
   <si>
     <t>insaneintherainmusic</t>
   </si>
   <si>
-    <t>Aiobahn, Mick Mazoo</t>
+    <t>SWACQ</t>
   </si>
   <si>
     <t>Sia, David Guetta, Jordy Wess</t>
   </si>
   <si>
+    <t>Janee</t>
+  </si>
+  <si>
+    <t>Major Lazer, Sia, Labrinth, Dominic Strike, Diplo, Walshy Fire, Ape Drums</t>
+  </si>
+  <si>
     <t>CloudNone</t>
   </si>
   <si>
     <t>BLK RSE, KAAZE</t>
   </si>
   <si>
+    <t>RetroVision</t>
+  </si>
+  <si>
+    <t>L.M.</t>
+  </si>
+  <si>
     <t>La La La</t>
   </si>
   <si>
@@ -84,30 +102,48 @@
     <t>The Business (SWACQ Remix)</t>
   </si>
   <si>
+    <t>Blossom</t>
+  </si>
+  <si>
     <t>Eyes Closed</t>
   </si>
   <si>
     <t>Breathe</t>
   </si>
   <si>
+    <t>Never Go Back</t>
+  </si>
+  <si>
     <t>Alibi</t>
   </si>
   <si>
     <t>Gangplank Galleon</t>
   </si>
   <si>
-    <t>Never Go Back</t>
+    <t>Pursuit</t>
   </si>
   <si>
     <t>Floating Through Space (Jordy Wess Remix)</t>
   </si>
   <si>
+    <t>Can't Let You Go</t>
+  </si>
+  <si>
+    <t>Titans (Dominic Strike Remix)</t>
+  </si>
+  <si>
     <t>Dizzy Lifted</t>
   </si>
   <si>
     <t>Silence (KAAZE Mix)</t>
   </si>
   <si>
+    <t>Whatever You Want</t>
+  </si>
+  <si>
+    <t>Colour Out</t>
+  </si>
+  <si>
     <t>STMPD RCRDS, Hollywood Records</t>
   </si>
   <si>
@@ -117,21 +153,27 @@
     <t>Musical Freedom, Atlantic Records</t>
   </si>
   <si>
+    <t>MOM+POP</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
     <t>Monstercat</t>
   </si>
   <si>
+    <t>STMPD RCRDS</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>STMPD RCRDS</t>
-  </si>
-  <si>
     <t>Revealed Music</t>
   </si>
   <si>
+    <t>RushDown</t>
+  </si>
+  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -162,31 +204,46 @@
     <t>Subshock &amp; Evangelos</t>
   </si>
   <si>
-    <t>SWACQ</t>
-  </si>
-  <si>
     <t>Tiësto</t>
   </si>
   <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Aiobahn</t>
+  </si>
+  <si>
+    <t>Mick Mazoo</t>
+  </si>
+  <si>
     <t>CRVN</t>
   </si>
   <si>
     <t>Dirty Palm</t>
   </si>
   <si>
-    <t>Aiobahn</t>
-  </si>
-  <si>
-    <t>Mick Mazoo</t>
-  </si>
-  <si>
     <t>David Guetta</t>
   </si>
   <si>
     <t>Jordy Wess</t>
   </si>
   <si>
-    <t>Sia</t>
+    <t>Ape Drums</t>
+  </si>
+  <si>
+    <t>Diplo</t>
+  </si>
+  <si>
+    <t>Dominic Strike</t>
+  </si>
+  <si>
+    <t>Labrinth</t>
+  </si>
+  <si>
+    <t>Major Lazer</t>
+  </si>
+  <si>
+    <t>Walshy Fire</t>
   </si>
   <si>
     <t>BLK RSE</t>
@@ -559,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>1679240</v>
+        <v>1929595</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -598,13 +655,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>632640</v>
+        <v>673576</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -612,13 +669,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>596559</v>
+        <v>634257</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -626,13 +683,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>230076</v>
+        <v>237199</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -640,13 +697,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>103671</v>
+        <v>132337</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -654,13 +711,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>90573</v>
+        <v>111340</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -668,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>75673</v>
+        <v>97862</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -682,13 +739,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>72724</v>
+        <v>82425</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -696,13 +753,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>71776</v>
+        <v>79043</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -710,13 +767,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>51241</v>
+        <v>78348</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -724,13 +781,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>21084</v>
+        <v>77156</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -738,13 +795,97 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>55440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>38903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="D13">
-        <v>10915</v>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>37967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>26046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>14152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -771,213 +912,315 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E2">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -988,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1005,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1013,27 +1256,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>46367</v>
+        <v>56190</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>29360</v>
+        <v>32185</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1041,13 +1284,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>27387</v>
+        <v>29612</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1055,13 +1298,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>23879</v>
+        <v>26745</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1069,69 +1312,69 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>23090</v>
+        <v>25053</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>11554</v>
+        <v>24320</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>11354</v>
+        <v>13555</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>8457</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>8146</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1139,40 +1382,124 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>2652</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D13">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
@@ -1183,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1199,74 +1526,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>1679240</v>
+        <v>1929595</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B3">
-        <v>1679240</v>
+        <v>1929595</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B4">
-        <v>1679240</v>
+        <v>1929595</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>632640</v>
+        <v>673576</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B6">
-        <v>632640</v>
+        <v>673576</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B7">
-        <v>596559</v>
+        <v>634257</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>596559</v>
+        <v>634257</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>230076</v>
+        <v>314355</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>230076</v>
+        <v>237199</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1274,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>103671</v>
+        <v>132337</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1282,95 +1609,175 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>90573</v>
+        <v>111340</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>75673</v>
+        <v>97862</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B14">
-        <v>75673</v>
+        <v>93407</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>72724</v>
+        <v>82425</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B16">
-        <v>71776</v>
+        <v>82425</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B17">
-        <v>71776</v>
+        <v>79043</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B18">
-        <v>51241</v>
+        <v>79043</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>51241</v>
+        <v>78348</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B20">
-        <v>51241</v>
+        <v>55440</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B21">
-        <v>21084</v>
+        <v>55440</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>10915</v>
+        <v>38903</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B23">
-        <v>10915</v>
+        <v>37967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>37967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>37967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26">
+        <v>37967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>37967</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28">
+        <v>37967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>26046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30">
+        <v>14152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>14152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1391,251 +1798,361 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0</v>
       </c>
     </row>
@@ -1646,7 +2163,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1657,182 +2174,262 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>46367</v>
+        <v>56190</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B3">
-        <v>46367</v>
+        <v>56190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B4">
-        <v>46367</v>
+        <v>56190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>29360</v>
+        <v>32185</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>27387</v>
+        <v>31445</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B7">
-        <v>27387</v>
+        <v>29612</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>23879</v>
+        <v>29612</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B9">
-        <v>23879</v>
+        <v>26745</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>23090</v>
+        <v>26745</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>23090</v>
+        <v>25053</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>11554</v>
+        <v>24320</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B13">
-        <v>11554</v>
+        <v>13555</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B14">
-        <v>11354</v>
+        <v>13555</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B15">
-        <v>11354</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B16">
-        <v>8457</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>8457</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B18">
-        <v>8457</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B19">
-        <v>8146</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B20">
-        <v>2652</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B21">
-        <v>2652</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
         <v>0</v>
       </c>
     </row>
@@ -1843,7 +2440,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1859,66 +2456,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B2">
-        <v>1751016</v>
+        <v>2128079</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>1679240</v>
+        <v>1929595</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>1229199</v>
+        <v>1307833</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B5">
-        <v>230076</v>
+        <v>237199</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>230076</v>
+        <v>237199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B7">
-        <v>111657</v>
+        <v>132337</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>103671</v>
+        <v>123908</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B9">
-        <v>10915</v>
+        <v>116893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>14152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -1928,7 +2541,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1939,59 +2552,59 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -2002,7 +2615,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2013,23 +2626,45 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
@@ -2040,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2051,71 +2686,87 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B2">
-        <v>57721</v>
+        <v>76560</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>51266</v>
+        <v>56357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>46367</v>
+        <v>56190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>37506</v>
+        <v>42056</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B6">
-        <v>23090</v>
+        <v>25053</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B7">
-        <v>23090</v>
+        <v>25053</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B8">
-        <v>2652</v>
+        <v>24320</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>2149</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="95">
   <si>
     <t>Artist</t>
   </si>
@@ -42,6 +42,9 @@
     <t>DISTO, Todd Helder</t>
   </si>
   <si>
+    <t>SVRRIC, RUINDKID, Silent Child</t>
+  </si>
+  <si>
     <t>Subshock &amp; Evangelos, MIDNIGHT CVLT</t>
   </si>
   <si>
@@ -51,24 +54,30 @@
     <t>Porter Robinson</t>
   </si>
   <si>
+    <t>Exyl</t>
+  </si>
+  <si>
     <t>Don Diablo</t>
   </si>
   <si>
+    <t>Bad Computer</t>
+  </si>
+  <si>
     <t>Curbi</t>
   </si>
   <si>
+    <t>SWACQ</t>
+  </si>
+  <si>
     <t>Aiobahn, Mick Mazoo</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>Dirty Palm, CRVN</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
-    <t>SWACQ</t>
-  </si>
-  <si>
     <t>Sia, David Guetta, Jordy Wess</t>
   </si>
   <si>
@@ -81,10 +90,13 @@
     <t>CloudNone</t>
   </si>
   <si>
+    <t>RetroVision</t>
+  </si>
+  <si>
     <t>BLK RSE, KAAZE</t>
   </si>
   <si>
-    <t>RetroVision</t>
+    <t>Adrian Fyrla, Tom Westy, R3JECTED</t>
   </si>
   <si>
     <t>L.M.</t>
@@ -96,6 +108,9 @@
     <t>DISTODD</t>
   </si>
   <si>
+    <t>Fall To My Grave</t>
+  </si>
+  <si>
     <t>Beyond The Skies</t>
   </si>
   <si>
@@ -105,24 +120,30 @@
     <t>Blossom</t>
   </si>
   <si>
+    <t>Egg</t>
+  </si>
+  <si>
     <t>Eyes Closed</t>
   </si>
   <si>
+    <t>Paradise</t>
+  </si>
+  <si>
     <t>Breathe</t>
   </si>
   <si>
+    <t>Pursuit</t>
+  </si>
+  <si>
     <t>Never Go Back</t>
   </si>
   <si>
+    <t>Gangplank Galleon</t>
+  </si>
+  <si>
     <t>Alibi</t>
   </si>
   <si>
-    <t>Gangplank Galleon</t>
-  </si>
-  <si>
-    <t>Pursuit</t>
-  </si>
-  <si>
     <t>Floating Through Space (Jordy Wess Remix)</t>
   </si>
   <si>
@@ -135,10 +156,13 @@
     <t>Dizzy Lifted</t>
   </si>
   <si>
+    <t>Whatever You Want</t>
+  </si>
+  <si>
     <t>Silence (KAAZE Mix)</t>
   </si>
   <si>
-    <t>Whatever You Want</t>
+    <t>Collide</t>
   </si>
   <si>
     <t>Colour Out</t>
@@ -156,6 +180,9 @@
     <t>MOM+POP</t>
   </si>
   <si>
+    <t>NONE</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
@@ -165,12 +192,12 @@
     <t>STMPD RCRDS</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t>Revealed Music</t>
   </si>
   <si>
+    <t>HEXAGON, GenerationHEX</t>
+  </si>
+  <si>
     <t>RushDown</t>
   </si>
   <si>
@@ -198,6 +225,15 @@
     <t>Todd Helder</t>
   </si>
   <si>
+    <t>RUINDKID</t>
+  </si>
+  <si>
+    <t>SVRRIC</t>
+  </si>
+  <si>
+    <t>Silent Child</t>
+  </si>
+  <si>
     <t>MIDNIGHT CVLT</t>
   </si>
   <si>
@@ -252,6 +288,15 @@
     <t>KAAZE</t>
   </si>
   <si>
+    <t>Adrian Fyrla</t>
+  </si>
+  <si>
+    <t>R3JECTED</t>
+  </si>
+  <si>
+    <t>Tom Westy</t>
+  </si>
+  <si>
     <t>Hollywood Records</t>
   </si>
   <si>
@@ -259,6 +304,9 @@
   </si>
   <si>
     <t>Musical Freedom</t>
+  </si>
+  <si>
+    <t>GenerationHEX</t>
   </si>
 </sst>
 </file>
@@ -616,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>1929595</v>
+        <v>2137938</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -655,13 +703,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>673576</v>
+        <v>718886</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -669,13 +717,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>634257</v>
+        <v>707133</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -683,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>237199</v>
+        <v>676751</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -697,13 +745,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>132337</v>
+        <v>244841</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -711,13 +759,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>111340</v>
+        <v>165280</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -725,13 +773,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>97862</v>
+        <v>127209</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -739,13 +787,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>82425</v>
+        <v>120187</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -753,13 +801,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>79043</v>
+        <v>113393</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -767,13 +815,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>78348</v>
+        <v>106353</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -781,13 +829,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>77156</v>
+        <v>91302</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -795,13 +843,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>55440</v>
+        <v>90182</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -809,13 +857,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>38903</v>
+        <v>85897</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -823,13 +871,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>37967</v>
+        <v>83217</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -837,13 +885,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>26046</v>
+        <v>60797</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -851,13 +899,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>14152</v>
+        <v>55380</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -865,13 +913,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>5553</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -879,13 +927,69 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>689</v>
+        <v>30292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>25654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>16878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>12205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -912,61 +1016,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -974,33 +1078,33 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
         <v>46</v>
-      </c>
-      <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1008,180 +1112,180 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
       <c r="E9">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1192,13 +1296,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1209,18 +1313,86 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -1231,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1256,97 +1428,97 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>56190</v>
+        <v>65400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>32185</v>
+        <v>35243</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>29612</v>
+        <v>32418</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>26745</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>25053</v>
+        <v>30119</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>24320</v>
+        <v>29810</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>13555</v>
+        <v>27457</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1354,152 +1526,208 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>12485</v>
+        <v>21253</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>9871</v>
+        <v>15699</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>9169</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>6392</v>
+        <v>11353</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>3755</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>2922</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>2149</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>423</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="D19">
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
@@ -1510,7 +1738,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1526,138 +1754,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B2">
-        <v>1929595</v>
+        <v>2137938</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>1929595</v>
+        <v>2137938</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>1929595</v>
+        <v>2137938</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>673576</v>
+        <v>718886</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>673576</v>
+        <v>718886</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B7">
-        <v>634257</v>
+        <v>707133</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B8">
-        <v>634257</v>
+        <v>707133</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B9">
-        <v>314355</v>
+        <v>707133</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B10">
-        <v>237199</v>
+        <v>676751</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B11">
-        <v>132337</v>
+        <v>676751</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>111340</v>
+        <v>336143</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>97862</v>
+        <v>244841</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>93407</v>
+        <v>165280</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>82425</v>
+        <v>127209</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>82425</v>
+        <v>120187</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>79043</v>
+        <v>113393</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B18">
-        <v>79043</v>
+        <v>106540</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1665,23 +1893,23 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>78348</v>
+        <v>106353</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B20">
-        <v>55440</v>
+        <v>90182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B21">
-        <v>55440</v>
+        <v>90182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1689,95 +1917,159 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>38903</v>
+        <v>85897</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>37967</v>
+        <v>83217</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>37967</v>
+        <v>83217</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>37967</v>
+        <v>60797</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B26">
-        <v>37967</v>
+        <v>60797</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>37967</v>
+        <v>55380</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B28">
-        <v>37967</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B29">
-        <v>26046</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B30">
-        <v>14152</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B31">
-        <v>14152</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B32">
-        <v>5553</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B33">
-        <v>689</v>
+      <c r="B34">
+        <v>30292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>25654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>16878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>16878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <v>12205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39">
+        <v>12205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>12205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +2079,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1798,43 +2090,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1842,301 +2134,301 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2147,12 +2439,100 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>0</v>
       </c>
     </row>
@@ -2163,7 +2543,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2174,262 +2554,326 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B2">
-        <v>56190</v>
+        <v>65400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>56190</v>
+        <v>65400</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>56190</v>
+        <v>65400</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>32185</v>
+        <v>37517</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>31445</v>
+        <v>35243</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>29612</v>
+        <v>32418</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>29612</v>
+        <v>32418</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>26745</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B10">
-        <v>26745</v>
+        <v>30119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>25053</v>
+        <v>30119</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B12">
-        <v>24320</v>
+        <v>30119</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>13555</v>
+        <v>29810</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>13555</v>
+        <v>29810</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B15">
-        <v>12485</v>
+        <v>27457</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>12485</v>
+        <v>21253</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B17">
-        <v>9871</v>
+        <v>15699</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B18">
-        <v>9169</v>
+        <v>15699</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B19">
-        <v>9169</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B20">
-        <v>9169</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>3755</v>
+        <v>11353</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>3755</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B23">
-        <v>2922</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B24">
-        <v>2149</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B25">
-        <v>423</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B33">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
         <v>0</v>
       </c>
     </row>
@@ -2440,7 +2884,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2456,82 +2900,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>2128079</v>
+        <v>2374802</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B3">
-        <v>1929595</v>
+        <v>2137938</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B4">
-        <v>1307833</v>
+        <v>2102770</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>237199</v>
+        <v>250038</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>237199</v>
+        <v>244841</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B7">
-        <v>132337</v>
+        <v>244841</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>123908</v>
+        <v>165280</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>116893</v>
+        <v>158046</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>14152</v>
+        <v>16878</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>689</v>
+        <v>12205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2993,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2552,109 +3004,109 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C3">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2662,9 +3114,20 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
@@ -2675,7 +3138,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2686,87 +3149,95 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>76560</v>
+        <v>95356</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B3">
-        <v>56357</v>
+        <v>92347</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B4">
-        <v>56190</v>
+        <v>67849</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>42056</v>
+        <v>65400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>25053</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B7">
-        <v>25053</v>
+        <v>27457</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>24320</v>
+        <v>27457</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>3755</v>
+        <v>11048</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B10">
-        <v>2922</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>2149</v>
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>3950</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="103">
   <si>
     <t>Artist</t>
   </si>
@@ -39,18 +39,21 @@
     <t>AREA21, Martin Garrix, Maejor</t>
   </si>
   <si>
+    <t>SVRRIC, RUINDKID, Silent Child</t>
+  </si>
+  <si>
     <t>DISTO, Todd Helder</t>
   </si>
   <si>
-    <t>SVRRIC, RUINDKID, Silent Child</t>
-  </si>
-  <si>
     <t>Subshock &amp; Evangelos, MIDNIGHT CVLT</t>
   </si>
   <si>
     <t>Tiësto, SWACQ</t>
   </si>
   <si>
+    <t>SICK INDIVIDUALS, EKKO</t>
+  </si>
+  <si>
     <t>Porter Robinson</t>
   </si>
   <si>
@@ -78,12 +81,12 @@
     <t>Dirty Palm, CRVN</t>
   </si>
   <si>
+    <t>Janee</t>
+  </si>
+  <si>
     <t>Sia, David Guetta, Jordy Wess</t>
   </si>
   <si>
-    <t>Janee</t>
-  </si>
-  <si>
     <t>Major Lazer, Sia, Labrinth, Dominic Strike, Diplo, Walshy Fire, Ape Drums</t>
   </si>
   <si>
@@ -99,24 +102,30 @@
     <t>Adrian Fyrla, Tom Westy, R3JECTED</t>
   </si>
   <si>
+    <t>Infowler, Rusherz</t>
+  </si>
+  <si>
     <t>L.M.</t>
   </si>
   <si>
     <t>La La La</t>
   </si>
   <si>
+    <t>Fall To My Grave</t>
+  </si>
+  <si>
     <t>DISTODD</t>
   </si>
   <si>
-    <t>Fall To My Grave</t>
-  </si>
-  <si>
     <t>Beyond The Skies</t>
   </si>
   <si>
     <t>The Business (SWACQ Remix)</t>
   </si>
   <si>
+    <t>Flame</t>
+  </si>
+  <si>
     <t>Blossom</t>
   </si>
   <si>
@@ -144,12 +153,12 @@
     <t>Alibi</t>
   </si>
   <si>
+    <t>Can't Let You Go</t>
+  </si>
+  <si>
     <t>Floating Through Space (Jordy Wess Remix)</t>
   </si>
   <si>
-    <t>Can't Let You Go</t>
-  </si>
-  <si>
     <t>Titans (Dominic Strike Remix)</t>
   </si>
   <si>
@@ -165,6 +174,9 @@
     <t>Collide</t>
   </si>
   <si>
+    <t>Beyond (Rusherz Remix)</t>
+  </si>
+  <si>
     <t>Colour Out</t>
   </si>
   <si>
@@ -177,6 +189,9 @@
     <t>Musical Freedom, Atlantic Records</t>
   </si>
   <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
     <t>MOM+POP</t>
   </si>
   <si>
@@ -192,9 +207,6 @@
     <t>STMPD RCRDS</t>
   </si>
   <si>
-    <t>Revealed Music</t>
-  </si>
-  <si>
     <t>HEXAGON, GenerationHEX</t>
   </si>
   <si>
@@ -219,21 +231,21 @@
     <t>Martin Garrix</t>
   </si>
   <si>
+    <t>RUINDKID</t>
+  </si>
+  <si>
+    <t>SVRRIC</t>
+  </si>
+  <si>
+    <t>Silent Child</t>
+  </si>
+  <si>
     <t>DISTO</t>
   </si>
   <si>
     <t>Todd Helder</t>
   </si>
   <si>
-    <t>RUINDKID</t>
-  </si>
-  <si>
-    <t>SVRRIC</t>
-  </si>
-  <si>
-    <t>Silent Child</t>
-  </si>
-  <si>
     <t>MIDNIGHT CVLT</t>
   </si>
   <si>
@@ -243,6 +255,12 @@
     <t>Tiësto</t>
   </si>
   <si>
+    <t>EKKO</t>
+  </si>
+  <si>
+    <t>SICK INDIVIDUALS</t>
+  </si>
+  <si>
     <t>Sia</t>
   </si>
   <si>
@@ -295,6 +313,12 @@
   </si>
   <si>
     <t>Tom Westy</t>
+  </si>
+  <si>
+    <t>Infowler</t>
+  </si>
+  <si>
+    <t>Rusherz</t>
   </si>
   <si>
     <t>Hollywood Records</t>
@@ -664,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -689,13 +713,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>2137938</v>
+        <v>2336862</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -703,13 +727,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>718886</v>
+        <v>779422</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -717,13 +741,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>707133</v>
+        <v>754584</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -731,13 +755,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>676751</v>
+        <v>710022</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -745,13 +769,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>244841</v>
+        <v>250713</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -759,13 +783,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>165280</v>
+        <v>190296</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -773,13 +797,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>127209</v>
+        <v>188811</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -787,13 +811,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>120187</v>
+        <v>140495</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -801,13 +825,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>113393</v>
+        <v>127884</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -815,13 +839,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>106353</v>
+        <v>124336</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -829,13 +853,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12">
-        <v>91302</v>
+        <v>113755</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -843,13 +867,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>90182</v>
+        <v>103746</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -857,13 +881,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>85897</v>
+        <v>96570</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -871,13 +895,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>83217</v>
+        <v>91699</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -885,13 +909,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>60797</v>
+        <v>87378</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -899,13 +923,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>55380</v>
+        <v>65960</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -913,13 +937,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>45743</v>
+        <v>65350</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -927,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>30292</v>
+        <v>51739</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -941,13 +965,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>25654</v>
+        <v>32836</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -955,13 +979,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>16878</v>
+        <v>29730</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -969,13 +993,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>12205</v>
+        <v>18719</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -983,13 +1007,41 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>813</v>
+        <v>12726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1051,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1016,211 +1068,211 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E2">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
         <v>53</v>
       </c>
-      <c r="D4">
-        <v>42</v>
-      </c>
       <c r="E4">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1228,47 +1280,47 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1279,30 +1331,30 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1313,13 +1365,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1330,13 +1382,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1347,13 +1399,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1364,13 +1416,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1381,18 +1433,52 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1489,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1428,251 +1514,251 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>65400</v>
+        <v>73894</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>35243</v>
+        <v>37650</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>32418</v>
+        <v>35835</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>30600</v>
+        <v>35136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>30119</v>
+        <v>34365</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>29810</v>
+        <v>32629</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>27457</v>
+        <v>32235</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>21253</v>
+        <v>23394</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>15699</v>
+        <v>17466</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>13490</v>
+        <v>14364</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>11353</v>
+        <v>13317</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>10694</v>
+        <v>12601</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>10060</v>
+        <v>11902</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>9860</v>
+        <v>10455</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>6116</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17">
-        <v>4932</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>4744</v>
+        <v>6531</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
       </c>
       <c r="D19">
-        <v>4197</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1680,54 +1766,82 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>3950</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
         <v>0</v>
       </c>
     </row>
@@ -1738,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1754,138 +1868,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>2137938</v>
+        <v>2336862</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>2137938</v>
+        <v>2336862</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>2137938</v>
+        <v>2336862</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B5">
-        <v>718886</v>
+        <v>779422</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B6">
-        <v>718886</v>
+        <v>779422</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>707133</v>
+        <v>779422</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>707133</v>
+        <v>754584</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>707133</v>
+        <v>754584</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B10">
-        <v>676751</v>
+        <v>710022</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>676751</v>
+        <v>710022</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>336143</v>
+        <v>354459</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>244841</v>
+        <v>250713</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B14">
-        <v>165280</v>
+        <v>190296</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B15">
-        <v>127209</v>
+        <v>190296</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>120187</v>
+        <v>188811</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>113393</v>
+        <v>140495</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>106540</v>
+        <v>127884</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1893,63 +2007,63 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>106353</v>
+        <v>124336</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B20">
-        <v>90182</v>
+        <v>117089</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>90182</v>
+        <v>113755</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B22">
-        <v>85897</v>
+        <v>96570</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B23">
-        <v>83217</v>
+        <v>96570</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>83217</v>
+        <v>91699</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>60797</v>
+        <v>87378</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B26">
-        <v>60797</v>
+        <v>87378</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1957,119 +2071,151 @@
         <v>19</v>
       </c>
       <c r="B27">
-        <v>55380</v>
+        <v>65960</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>45743</v>
+        <v>65350</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B29">
-        <v>45743</v>
+        <v>65350</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B30">
-        <v>45743</v>
+        <v>51739</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B31">
-        <v>45743</v>
+        <v>51739</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B32">
-        <v>45743</v>
+        <v>51739</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B33">
-        <v>45743</v>
+        <v>51739</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B34">
-        <v>30292</v>
+        <v>51739</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B35">
-        <v>25654</v>
+        <v>51739</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>16878</v>
+        <v>32836</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>16878</v>
+        <v>29730</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B38">
-        <v>12205</v>
+        <v>18719</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B39">
-        <v>12205</v>
+        <v>18719</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B40">
-        <v>12205</v>
+        <v>12726</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B41">
-        <v>813</v>
+        <v>12726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42">
+        <v>12726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2225,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,180 +2236,180 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -2274,32 +2420,32 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2307,106 +2453,106 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2428,29 +2574,29 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2461,7 +2607,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2472,7 +2618,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2483,7 +2629,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2494,7 +2640,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2505,7 +2651,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2516,7 +2662,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2527,12 +2673,56 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
     </row>
@@ -2543,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2554,300 +2744,300 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>65400</v>
+        <v>73894</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>65400</v>
+        <v>73894</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>65400</v>
+        <v>73894</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>37517</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>35243</v>
+        <v>37650</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>32418</v>
+        <v>35835</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>32418</v>
+        <v>35136</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>30600</v>
+        <v>35136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>30119</v>
+        <v>35136</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B11">
-        <v>30119</v>
+        <v>34365</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B12">
-        <v>30119</v>
+        <v>34365</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>29810</v>
+        <v>32629</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>29810</v>
+        <v>32235</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>27457</v>
+        <v>32235</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>21253</v>
+        <v>23394</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B17">
-        <v>15699</v>
+        <v>17466</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B18">
-        <v>15699</v>
+        <v>17466</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B19">
-        <v>13490</v>
+        <v>14364</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B20">
-        <v>13490</v>
+        <v>14364</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>11353</v>
+        <v>12601</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>10694</v>
+        <v>11902</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B23">
-        <v>9860</v>
+        <v>10455</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>9860</v>
+        <v>10455</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B25">
-        <v>9860</v>
+        <v>10455</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B26">
-        <v>6116</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B27">
-        <v>4932</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>4932</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>4932</v>
+        <v>6531</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B30">
-        <v>4744</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B31">
-        <v>4744</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B32">
-        <v>4197</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B33">
-        <v>3950</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2855,7 +3045,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2863,7 +3053,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2871,9 +3061,41 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
         <v>0</v>
       </c>
     </row>
@@ -2900,90 +3122,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>2374802</v>
+        <v>2603138</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B3">
-        <v>2137938</v>
+        <v>2336862</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>2102770</v>
+        <v>2244028</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B5">
-        <v>250038</v>
+        <v>270927</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>244841</v>
+        <v>250713</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B7">
-        <v>244841</v>
+        <v>250713</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8">
-        <v>165280</v>
+        <v>209015</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B9">
-        <v>158046</v>
+        <v>188811</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>16878</v>
+        <v>170340</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B11">
-        <v>12205</v>
+        <v>12726</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12">
-        <v>813</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -3004,92 +3226,92 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C2">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -3100,7 +3322,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3111,7 +3333,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3122,7 +3344,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3149,95 +3371,95 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>95356</v>
+        <v>111208</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>92347</v>
+        <v>101736</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>67849</v>
+        <v>73894</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B5">
-        <v>65400</v>
+        <v>73645</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>30600</v>
+        <v>35835</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>27457</v>
+        <v>32629</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B8">
-        <v>27457</v>
+        <v>32629</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9">
-        <v>11048</v>
+        <v>15133</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>4932</v>
+        <v>13562</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B11">
-        <v>4744</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12">
-        <v>3950</v>
+        <v>4721</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="115">
   <si>
     <t>Artist</t>
   </si>
@@ -51,24 +51,30 @@
     <t>Tiësto, SWACQ</t>
   </si>
   <si>
+    <t>Porter Robinson</t>
+  </si>
+  <si>
     <t>SICK INDIVIDUALS, EKKO</t>
   </si>
   <si>
-    <t>Porter Robinson</t>
-  </si>
-  <si>
     <t>Exyl</t>
   </si>
   <si>
+    <t>Bad Computer</t>
+  </si>
+  <si>
     <t>Don Diablo</t>
   </si>
   <si>
-    <t>Bad Computer</t>
-  </si>
-  <si>
     <t>Curbi</t>
   </si>
   <si>
+    <t>Matisse &amp; Sadko, Alex Aris</t>
+  </si>
+  <si>
+    <t>Arlow, Elliot Kings, Introspect</t>
+  </si>
+  <si>
     <t>SWACQ</t>
   </si>
   <si>
@@ -123,24 +129,30 @@
     <t>The Business (SWACQ Remix)</t>
   </si>
   <si>
+    <t>Blossom</t>
+  </si>
+  <si>
     <t>Flame</t>
   </si>
   <si>
-    <t>Blossom</t>
-  </si>
-  <si>
     <t>Egg</t>
   </si>
   <si>
+    <t>Paradise</t>
+  </si>
+  <si>
     <t>Eyes Closed</t>
   </si>
   <si>
-    <t>Paradise</t>
-  </si>
-  <si>
     <t>Breathe</t>
   </si>
   <si>
+    <t>Heal Me</t>
+  </si>
+  <si>
+    <t>Frozen In Time</t>
+  </si>
+  <si>
     <t>Pursuit</t>
   </si>
   <si>
@@ -189,24 +201,27 @@
     <t>Musical Freedom, Atlantic Records</t>
   </si>
   <si>
+    <t>MOM+POP</t>
+  </si>
+  <si>
     <t>Revealed Music</t>
   </si>
   <si>
-    <t>MOM+POP</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
-    <t>Monstercat</t>
-  </si>
-  <si>
     <t>STMPD RCRDS</t>
   </si>
   <si>
+    <t>Spinnin' NEXT, Spinnin' Records</t>
+  </si>
+  <si>
     <t>HEXAGON, GenerationHEX</t>
   </si>
   <si>
@@ -264,6 +279,21 @@
     <t>Sia</t>
   </si>
   <si>
+    <t>Alex Aris</t>
+  </si>
+  <si>
+    <t>Matisse &amp; Sadko</t>
+  </si>
+  <si>
+    <t>Arlow</t>
+  </si>
+  <si>
+    <t>Elliot Kings</t>
+  </si>
+  <si>
+    <t>Introspect</t>
+  </si>
+  <si>
     <t>Aiobahn</t>
   </si>
   <si>
@@ -328,6 +358,12 @@
   </si>
   <si>
     <t>Musical Freedom</t>
+  </si>
+  <si>
+    <t>Spinnin' NEXT</t>
+  </si>
+  <si>
+    <t>Spinnin' Records</t>
   </si>
   <si>
     <t>GenerationHEX</t>
@@ -688,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -713,13 +749,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>2336862</v>
+        <v>2576309</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -727,13 +763,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>779422</v>
+        <v>846256</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -741,13 +777,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>754584</v>
+        <v>788687</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -755,13 +791,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>710022</v>
+        <v>740890</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -769,13 +805,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>250713</v>
+        <v>256013</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -783,13 +819,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>190296</v>
+        <v>210135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -797,13 +833,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>188811</v>
+        <v>200238</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -811,13 +847,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>140495</v>
+        <v>153827</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -825,13 +861,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>127884</v>
+        <v>134896</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -839,13 +875,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>124336</v>
+        <v>133822</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -853,13 +889,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>113755</v>
+        <v>120885</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -867,13 +903,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>103746</v>
+        <v>113899</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -881,13 +917,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>96570</v>
+        <v>111924</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -895,13 +931,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>91699</v>
+        <v>109275</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -909,13 +945,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D16">
-        <v>87378</v>
+        <v>102419</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -923,13 +959,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>65960</v>
+        <v>96795</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -937,13 +973,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>65350</v>
+        <v>91079</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -951,13 +987,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>51739</v>
+        <v>74348</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -965,13 +1001,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>32836</v>
+        <v>70309</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -979,13 +1015,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>29730</v>
+        <v>57874</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -993,13 +1029,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>18719</v>
+        <v>35046</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1007,13 +1043,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>12726</v>
+        <v>31564</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1021,13 +1057,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>2122</v>
+        <v>20347</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1035,13 +1071,41 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>930</v>
+        <v>13149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1068,344 +1132,344 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1416,13 +1480,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1433,10 +1497,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
@@ -1450,13 +1514,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1467,18 +1531,52 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
     </row>
@@ -1489,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1506,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1514,41 +1612,41 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>73894</v>
+        <v>82592</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
       <c r="D3">
-        <v>37650</v>
+        <v>40305</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>35835</v>
+        <v>40087</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1556,13 +1654,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>35136</v>
+        <v>39644</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1570,13 +1668,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>34365</v>
+        <v>36824</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1584,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>32629</v>
+        <v>35881</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1598,83 +1696,83 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>32235</v>
+        <v>34440</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>23394</v>
+        <v>25228</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>17466</v>
+        <v>19483</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>14364</v>
+        <v>16435</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>13317</v>
+        <v>15325</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>12601</v>
+        <v>13596</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1682,166 +1780,194 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>11902</v>
+        <v>13022</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>10455</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>9439</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>7928</v>
+        <v>10822</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>6531</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>5694</v>
+        <v>9252</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>5634</v>
+        <v>8544</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>4721</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>4161</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25">
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
         <v>0</v>
       </c>
     </row>
@@ -1852,7 +1978,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1868,122 +1994,122 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>2336862</v>
+        <v>2576309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>2336862</v>
+        <v>2576309</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>2336862</v>
+        <v>2576309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B5">
-        <v>779422</v>
+        <v>846256</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B6">
-        <v>779422</v>
+        <v>846256</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B7">
-        <v>779422</v>
+        <v>846256</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>754584</v>
+        <v>788687</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>754584</v>
+        <v>788687</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B10">
-        <v>710022</v>
+        <v>740890</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B11">
-        <v>710022</v>
+        <v>740890</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>354459</v>
+        <v>365288</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B13">
-        <v>250713</v>
+        <v>256013</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>190296</v>
+        <v>210135</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B15">
-        <v>190296</v>
+        <v>200238</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B16">
-        <v>188811</v>
+        <v>200238</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1991,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>140495</v>
+        <v>153827</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1999,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>127884</v>
+        <v>134896</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2007,15 +2133,15 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>124336</v>
+        <v>133822</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B20">
-        <v>117089</v>
+        <v>128183</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2023,199 +2149,239 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>113755</v>
+        <v>120885</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B22">
-        <v>96570</v>
+        <v>113899</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B23">
-        <v>96570</v>
+        <v>113899</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B24">
-        <v>91699</v>
+        <v>111924</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B25">
-        <v>87378</v>
+        <v>111924</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B26">
-        <v>87378</v>
+        <v>111924</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B27">
-        <v>65960</v>
+        <v>102419</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B28">
-        <v>65350</v>
+        <v>102419</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>65350</v>
+        <v>96795</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B30">
-        <v>51739</v>
+        <v>91079</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B31">
-        <v>51739</v>
+        <v>91079</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>51739</v>
+        <v>74348</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B33">
-        <v>51739</v>
+        <v>70309</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B34">
-        <v>51739</v>
+        <v>70309</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B35">
-        <v>51739</v>
+        <v>57874</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B36">
-        <v>32836</v>
+        <v>57874</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B37">
-        <v>29730</v>
+        <v>57874</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B38">
-        <v>18719</v>
+        <v>57874</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B39">
-        <v>18719</v>
+        <v>57874</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B40">
-        <v>12726</v>
+        <v>57874</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B41">
-        <v>12726</v>
+        <v>35046</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>12726</v>
+        <v>31564</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B43">
-        <v>2122</v>
+        <v>20347</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B44">
-        <v>2122</v>
+        <v>20347</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B45">
-        <v>930</v>
+        <v>13149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46">
+        <v>13149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47">
+        <v>13149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2391,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2236,114 +2402,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>25</v>
@@ -2354,183 +2520,183 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2541,7 +2707,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2552,128 +2718,128 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2684,7 +2850,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2695,7 +2861,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2706,7 +2872,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2717,12 +2883,67 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>0</v>
       </c>
     </row>
@@ -2733,7 +2954,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2744,167 +2965,167 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>73894</v>
+        <v>82592</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>73894</v>
+        <v>82592</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>73894</v>
+        <v>82592</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>45946</v>
+        <v>52316</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>37650</v>
+        <v>40305</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>35835</v>
+        <v>40087</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>35136</v>
+        <v>39644</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>35136</v>
+        <v>39644</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B10">
-        <v>35136</v>
+        <v>39644</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B11">
-        <v>34365</v>
+        <v>36824</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B12">
-        <v>34365</v>
+        <v>36824</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B13">
-        <v>32629</v>
+        <v>35881</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B14">
-        <v>32235</v>
+        <v>34440</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B15">
-        <v>32235</v>
+        <v>34440</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>23394</v>
+        <v>25228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B17">
-        <v>17466</v>
+        <v>19483</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B18">
-        <v>17466</v>
+        <v>19483</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B19">
-        <v>14364</v>
+        <v>15325</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B20">
-        <v>14364</v>
+        <v>15325</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>12601</v>
+        <v>13596</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2912,172 +3133,172 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>11902</v>
+        <v>13022</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23">
-        <v>10455</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24">
-        <v>10455</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B25">
-        <v>10455</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B26">
-        <v>9439</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B27">
-        <v>9439</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B28">
-        <v>7928</v>
+        <v>10822</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B29">
-        <v>6531</v>
+        <v>10822</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B30">
-        <v>5694</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B31">
-        <v>5694</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B32">
-        <v>5634</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>5634</v>
+        <v>9252</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>5634</v>
+        <v>8544</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B35">
-        <v>4721</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B36">
-        <v>4161</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B37">
-        <v>4161</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3085,7 +3306,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3093,9 +3314,49 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
         <v>0</v>
       </c>
     </row>
@@ -3106,7 +3367,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3122,90 +3383,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>2603138</v>
+        <v>2976250</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B3">
-        <v>2336862</v>
+        <v>2576309</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>2244028</v>
+        <v>2375833</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5">
-        <v>270927</v>
+        <v>290827</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B6">
-        <v>250713</v>
+        <v>256013</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B7">
-        <v>250713</v>
+        <v>256013</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>209015</v>
+        <v>220585</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>188811</v>
+        <v>210135</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>170340</v>
+        <v>178535</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B11">
-        <v>12726</v>
+        <v>111924</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B12">
-        <v>930</v>
+        <v>111924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>13149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +3492,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3226,48 +3503,48 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C2">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="C3">
-        <v>172</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -3278,18 +3555,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -3300,7 +3577,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -3311,45 +3588,67 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
@@ -3360,7 +3659,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3371,95 +3670,111 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>111208</v>
+        <v>138601</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>101736</v>
+        <v>110908</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B4">
-        <v>73894</v>
+        <v>82592</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5">
-        <v>73645</v>
+        <v>78911</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>35835</v>
+        <v>40305</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B7">
-        <v>32629</v>
+        <v>35881</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B8">
-        <v>32629</v>
+        <v>35881</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>15133</v>
+        <v>17397</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>13562</v>
+        <v>15459</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B11">
-        <v>5634</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B12">
-        <v>4721</v>
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>5454</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -66,12 +66,12 @@
     <t>Don Diablo</t>
   </si>
   <si>
+    <t>Matisse &amp; Sadko, Alex Aris</t>
+  </si>
+  <si>
     <t>Curbi</t>
   </si>
   <si>
-    <t>Matisse &amp; Sadko, Alex Aris</t>
-  </si>
-  <si>
     <t>Arlow, Elliot Kings, Introspect</t>
   </si>
   <si>
@@ -144,10 +144,10 @@
     <t>Eyes Closed</t>
   </si>
   <si>
+    <t>Heal Me</t>
+  </si>
+  <si>
     <t>Breathe</t>
-  </si>
-  <si>
-    <t>Heal Me</t>
   </si>
   <si>
     <t>Frozen In Time</t>
@@ -755,7 +755,7 @@
         <v>56</v>
       </c>
       <c r="D2">
-        <v>2576309</v>
+        <v>2828896</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -769,7 +769,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>846256</v>
+        <v>911858</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -783,7 +783,7 @@
         <v>57</v>
       </c>
       <c r="D4">
-        <v>788687</v>
+        <v>818284</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -797,7 +797,7 @@
         <v>57</v>
       </c>
       <c r="D5">
-        <v>740890</v>
+        <v>770947</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -811,7 +811,7 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>256013</v>
+        <v>261166</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -825,7 +825,7 @@
         <v>59</v>
       </c>
       <c r="D7">
-        <v>210135</v>
+        <v>230559</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -839,7 +839,7 @@
         <v>60</v>
       </c>
       <c r="D8">
-        <v>200238</v>
+        <v>209364</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -853,7 +853,7 @@
         <v>61</v>
       </c>
       <c r="D9">
-        <v>153827</v>
+        <v>168090</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -867,7 +867,7 @@
         <v>62</v>
       </c>
       <c r="D10">
-        <v>134896</v>
+        <v>144929</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -881,7 +881,7 @@
         <v>63</v>
       </c>
       <c r="D11">
-        <v>133822</v>
+        <v>140874</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -892,10 +892,10 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>120885</v>
+        <v>130431</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -906,10 +906,10 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>113899</v>
+        <v>128523</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -923,7 +923,7 @@
         <v>65</v>
       </c>
       <c r="D14">
-        <v>111924</v>
+        <v>118467</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -937,7 +937,7 @@
         <v>64</v>
       </c>
       <c r="D15">
-        <v>109275</v>
+        <v>113328</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -951,7 +951,7 @@
         <v>64</v>
       </c>
       <c r="D16">
-        <v>102419</v>
+        <v>107414</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -965,7 +965,7 @@
         <v>61</v>
       </c>
       <c r="D17">
-        <v>96795</v>
+        <v>101287</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -979,7 +979,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>91079</v>
+        <v>94967</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -993,7 +993,7 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>74348</v>
+        <v>81167</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1007,7 +1007,7 @@
         <v>61</v>
       </c>
       <c r="D20">
-        <v>70309</v>
+        <v>75664</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1021,7 +1021,7 @@
         <v>61</v>
       </c>
       <c r="D21">
-        <v>57874</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1035,7 +1035,7 @@
         <v>62</v>
       </c>
       <c r="D22">
-        <v>35046</v>
+        <v>37237</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1049,7 +1049,7 @@
         <v>63</v>
       </c>
       <c r="D23">
-        <v>31564</v>
+        <v>32930</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1063,7 +1063,7 @@
         <v>60</v>
       </c>
       <c r="D24">
-        <v>20347</v>
+        <v>21573</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1077,7 +1077,7 @@
         <v>66</v>
       </c>
       <c r="D25">
-        <v>13149</v>
+        <v>13444</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1091,7 +1091,7 @@
         <v>61</v>
       </c>
       <c r="D26">
-        <v>2634</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1105,7 +1105,7 @@
         <v>67</v>
       </c>
       <c r="D27">
-        <v>1002</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
         <v>128</v>
       </c>
       <c r="E2">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1166,10 +1166,10 @@
         <v>64</v>
       </c>
       <c r="D3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1183,10 +1183,10 @@
         <v>63</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1200,27 +1200,27 @@
         <v>64</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1234,10 +1234,10 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1251,10 +1251,10 @@
         <v>66</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1268,44 +1268,44 @@
         <v>64</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1319,10 +1319,10 @@
         <v>58</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1378,10 +1378,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
@@ -1390,35 +1390,35 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1463,19 +1463,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1618,77 +1618,77 @@
         <v>56</v>
       </c>
       <c r="D2">
-        <v>82592</v>
+        <v>93102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>40305</v>
+        <v>45157</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>40087</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>39644</v>
+        <v>42306</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>36824</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>35881</v>
+        <v>38572</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1702,7 +1702,7 @@
         <v>57</v>
       </c>
       <c r="D8">
-        <v>34440</v>
+        <v>36726</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1716,7 +1716,7 @@
         <v>62</v>
       </c>
       <c r="D9">
-        <v>25228</v>
+        <v>26988</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1730,7 +1730,7 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>19483</v>
+        <v>21182</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1744,7 +1744,7 @@
         <v>64</v>
       </c>
       <c r="D11">
-        <v>16435</v>
+        <v>19576</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1758,119 +1758,119 @@
         <v>61</v>
       </c>
       <c r="D12">
-        <v>15325</v>
+        <v>16224</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>13596</v>
+        <v>14543</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>13022</v>
+        <v>14471</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>11547</v>
+        <v>14077</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>11084</v>
+        <v>12234</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>10822</v>
+        <v>11661</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>9260</v>
+        <v>10499</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>9252</v>
+        <v>10327</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>8544</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1884,7 +1884,7 @@
         <v>60</v>
       </c>
       <c r="D21">
-        <v>6575</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1898,7 +1898,7 @@
         <v>66</v>
       </c>
       <c r="D22">
-        <v>6207</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1912,7 +1912,7 @@
         <v>67</v>
       </c>
       <c r="D23">
-        <v>5454</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1926,7 +1926,7 @@
         <v>61</v>
       </c>
       <c r="D24">
-        <v>5178</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1997,7 +1997,7 @@
         <v>71</v>
       </c>
       <c r="B2">
-        <v>2576309</v>
+        <v>2828896</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>72</v>
       </c>
       <c r="B3">
-        <v>2576309</v>
+        <v>2828896</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <v>2576309</v>
+        <v>2828896</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>74</v>
       </c>
       <c r="B5">
-        <v>846256</v>
+        <v>911858</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>75</v>
       </c>
       <c r="B6">
-        <v>846256</v>
+        <v>911858</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>76</v>
       </c>
       <c r="B7">
-        <v>846256</v>
+        <v>911858</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>788687</v>
+        <v>818284</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>78</v>
       </c>
       <c r="B9">
-        <v>788687</v>
+        <v>818284</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>79</v>
       </c>
       <c r="B10">
-        <v>740890</v>
+        <v>770947</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>740890</v>
+        <v>770947</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>365288</v>
+        <v>374494</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>81</v>
       </c>
       <c r="B13">
-        <v>256013</v>
+        <v>261166</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>210135</v>
+        <v>230559</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>82</v>
       </c>
       <c r="B15">
-        <v>200238</v>
+        <v>209364</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>83</v>
       </c>
       <c r="B16">
-        <v>200238</v>
+        <v>209364</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>153827</v>
+        <v>168090</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>134896</v>
+        <v>144929</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>133822</v>
+        <v>140874</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2141,31 +2141,31 @@
         <v>84</v>
       </c>
       <c r="B20">
-        <v>128183</v>
+        <v>139864</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>120885</v>
+        <v>130431</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>113899</v>
+        <v>130431</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>113899</v>
+        <v>128523</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>87</v>
       </c>
       <c r="B24">
-        <v>111924</v>
+        <v>118467</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>88</v>
       </c>
       <c r="B25">
-        <v>111924</v>
+        <v>118467</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>89</v>
       </c>
       <c r="B26">
-        <v>111924</v>
+        <v>118467</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>90</v>
       </c>
       <c r="B27">
-        <v>102419</v>
+        <v>107414</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>91</v>
       </c>
       <c r="B28">
-        <v>102419</v>
+        <v>107414</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>96795</v>
+        <v>101287</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>92</v>
       </c>
       <c r="B30">
-        <v>91079</v>
+        <v>94967</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>93</v>
       </c>
       <c r="B31">
-        <v>91079</v>
+        <v>94967</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>21</v>
       </c>
       <c r="B32">
-        <v>74348</v>
+        <v>81167</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>94</v>
       </c>
       <c r="B33">
-        <v>70309</v>
+        <v>75664</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>95</v>
       </c>
       <c r="B34">
-        <v>70309</v>
+        <v>75664</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>96</v>
       </c>
       <c r="B35">
-        <v>57874</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>97</v>
       </c>
       <c r="B36">
-        <v>57874</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>98</v>
       </c>
       <c r="B37">
-        <v>57874</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>99</v>
       </c>
       <c r="B38">
-        <v>57874</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>100</v>
       </c>
       <c r="B39">
-        <v>57874</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>101</v>
       </c>
       <c r="B40">
-        <v>57874</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>24</v>
       </c>
       <c r="B41">
-        <v>35046</v>
+        <v>37237</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="B42">
-        <v>31564</v>
+        <v>32930</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>102</v>
       </c>
       <c r="B43">
-        <v>20347</v>
+        <v>21573</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>103</v>
       </c>
       <c r="B44">
-        <v>20347</v>
+        <v>21573</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>104</v>
       </c>
       <c r="B45">
-        <v>13149</v>
+        <v>13444</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>105</v>
       </c>
       <c r="B46">
-        <v>13149</v>
+        <v>13444</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>106</v>
       </c>
       <c r="B47">
-        <v>13149</v>
+        <v>13444</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>107</v>
       </c>
       <c r="B48">
-        <v>2634</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>108</v>
       </c>
       <c r="B49">
-        <v>2634</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>29</v>
       </c>
       <c r="B50">
-        <v>1002</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2416,7 @@
         <v>128</v>
       </c>
       <c r="C2">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2424,10 +2424,10 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2435,10 +2435,10 @@
         <v>91</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2446,10 +2446,10 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2457,10 +2457,10 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2468,10 +2468,10 @@
         <v>85</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2479,10 +2479,10 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2490,10 +2490,10 @@
         <v>82</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2501,10 +2501,10 @@
         <v>83</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2512,10 +2512,10 @@
         <v>104</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2523,10 +2523,10 @@
         <v>105</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2534,10 +2534,10 @@
         <v>106</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2545,43 +2545,43 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2589,10 +2589,10 @@
         <v>81</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2674,106 +2674,106 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2839,29 +2839,29 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>71</v>
       </c>
       <c r="B2">
-        <v>82592</v>
+        <v>93102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>72</v>
       </c>
       <c r="B3">
-        <v>82592</v>
+        <v>93102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <v>82592</v>
+        <v>93102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2997,71 +2997,71 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>52316</v>
+        <v>58476</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>40305</v>
+        <v>45157</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B7">
-        <v>40087</v>
+        <v>45157</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B8">
-        <v>39644</v>
+        <v>45157</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>39644</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>39644</v>
+        <v>42306</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11">
-        <v>36824</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12">
-        <v>36824</v>
+        <v>38572</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>35881</v>
+        <v>38572</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>77</v>
       </c>
       <c r="B14">
-        <v>34440</v>
+        <v>36726</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>78</v>
       </c>
       <c r="B15">
-        <v>34440</v>
+        <v>36726</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>25228</v>
+        <v>26988</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>90</v>
       </c>
       <c r="B17">
-        <v>19483</v>
+        <v>21182</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>91</v>
       </c>
       <c r="B18">
-        <v>19483</v>
+        <v>21182</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>92</v>
       </c>
       <c r="B19">
-        <v>15325</v>
+        <v>16224</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3117,119 +3117,119 @@
         <v>93</v>
       </c>
       <c r="B20">
-        <v>15325</v>
+        <v>16224</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>13596</v>
+        <v>14543</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>13022</v>
+        <v>14543</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>11547</v>
+        <v>14471</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>11547</v>
+        <v>14077</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>11084</v>
+        <v>12234</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B26">
-        <v>11084</v>
+        <v>12234</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B27">
-        <v>11084</v>
+        <v>11661</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B28">
-        <v>10822</v>
+        <v>11661</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29">
-        <v>10822</v>
+        <v>11661</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>9260</v>
+        <v>10499</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>9260</v>
+        <v>10327</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32">
-        <v>9260</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B33">
-        <v>9252</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B34">
-        <v>8544</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>102</v>
       </c>
       <c r="B35">
-        <v>6575</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>103</v>
       </c>
       <c r="B36">
-        <v>6575</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>104</v>
       </c>
       <c r="B37">
-        <v>6207</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>105</v>
       </c>
       <c r="B38">
-        <v>6207</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>106</v>
       </c>
       <c r="B39">
-        <v>6207</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>29</v>
       </c>
       <c r="B40">
-        <v>5454</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>107</v>
       </c>
       <c r="B41">
-        <v>5178</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>108</v>
       </c>
       <c r="B42">
-        <v>5178</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>64</v>
       </c>
       <c r="B2">
-        <v>2976250</v>
+        <v>3261236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3394,7 +3394,7 @@
         <v>109</v>
       </c>
       <c r="B3">
-        <v>2576309</v>
+        <v>2828896</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>57</v>
       </c>
       <c r="B4">
-        <v>2375833</v>
+        <v>2501089</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>290827</v>
+        <v>310689</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>110</v>
       </c>
       <c r="B6">
-        <v>256013</v>
+        <v>261166</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>111</v>
       </c>
       <c r="B7">
-        <v>256013</v>
+        <v>261166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>220585</v>
+        <v>230937</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>210135</v>
+        <v>230559</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>63</v>
       </c>
       <c r="B10">
-        <v>178535</v>
+        <v>187248</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>112</v>
       </c>
       <c r="B11">
-        <v>111924</v>
+        <v>118467</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>113</v>
       </c>
       <c r="B12">
-        <v>111924</v>
+        <v>118467</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>114</v>
       </c>
       <c r="B13">
-        <v>13149</v>
+        <v>13444</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>67</v>
       </c>
       <c r="B14">
-        <v>1002</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -3514,10 +3514,10 @@
         <v>63</v>
       </c>
       <c r="B2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3525,10 +3525,10 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C3">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3536,10 +3536,10 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3547,10 +3547,10 @@
         <v>114</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3558,10 +3558,10 @@
         <v>62</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3569,10 +3569,10 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3580,10 +3580,10 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>64</v>
       </c>
       <c r="B2">
-        <v>138601</v>
+        <v>158730</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>110908</v>
+        <v>120455</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>109</v>
       </c>
       <c r="B4">
-        <v>82592</v>
+        <v>93102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>78911</v>
+        <v>83765</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>59</v>
       </c>
       <c r="B6">
-        <v>40305</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>35881</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>35881</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>17397</v>
+        <v>19504</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>63</v>
       </c>
       <c r="B10">
-        <v>15459</v>
+        <v>17194</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>112</v>
       </c>
       <c r="B11">
-        <v>9260</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>113</v>
       </c>
       <c r="B12">
-        <v>9260</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>114</v>
       </c>
       <c r="B13">
-        <v>6207</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>67</v>
       </c>
       <c r="B14">
-        <v>5454</v>
+        <v>6148</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="118">
   <si>
     <t>Artist</t>
   </si>
@@ -96,6 +96,9 @@
     <t>Major Lazer, Sia, Labrinth, Dominic Strike, Diplo, Walshy Fire, Ape Drums</t>
   </si>
   <si>
+    <t>Haywyre</t>
+  </si>
+  <si>
     <t>CloudNone</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>Titans (Dominic Strike Remix)</t>
   </si>
   <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
     <t>Dizzy Lifted</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
   </si>
   <si>
     <t>Spinnin' NEXT, Spinnin' Records</t>
+  </si>
+  <si>
+    <t>Lost In Dreams</t>
   </si>
   <si>
     <t>HEXAGON, GenerationHEX</t>
@@ -724,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,13 +758,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>2828896</v>
+        <v>3053284</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -763,13 +772,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>911858</v>
+        <v>956690</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -777,13 +786,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>818284</v>
+        <v>836712</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -791,13 +800,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>770947</v>
+        <v>792358</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -805,13 +814,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>261166</v>
+        <v>264750</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -819,13 +828,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>230559</v>
+        <v>244139</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -833,13 +842,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>209364</v>
+        <v>214666</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -847,13 +856,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>168090</v>
+        <v>178658</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -861,13 +870,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>144929</v>
+        <v>151344</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -875,13 +884,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>140874</v>
+        <v>144990</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -889,13 +898,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>130431</v>
+        <v>136895</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -903,13 +912,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>128523</v>
+        <v>134017</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -917,13 +926,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>118467</v>
+        <v>122281</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -931,13 +940,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>113328</v>
+        <v>115811</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -945,13 +954,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>107414</v>
+        <v>110736</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -959,13 +968,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>101287</v>
+        <v>104129</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -973,13 +982,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>94967</v>
+        <v>97447</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -987,13 +996,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>81167</v>
+        <v>85252</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1001,13 +1010,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>75664</v>
+        <v>78802</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1015,13 +1024,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21">
-        <v>64200</v>
+        <v>68463</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1029,13 +1038,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>37237</v>
+        <v>53836</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1043,13 +1052,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>32930</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1057,13 +1066,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>21573</v>
+        <v>33734</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1071,13 +1080,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>13444</v>
+        <v>22339</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1085,13 +1094,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>2942</v>
+        <v>13612</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1099,13 +1108,27 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>1099</v>
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1132,10 +1155,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1143,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1160,67 +1183,67 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1228,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>42</v>
@@ -1242,13 +1265,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>27</v>
@@ -1262,16 +1285,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1279,10 +1302,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -1293,13 +1316,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -1313,10 +1336,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -1330,10 +1353,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1347,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1361,13 +1384,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1381,10 +1404,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1398,10 +1421,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1412,30 +1435,30 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1446,10 +1469,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
@@ -1463,13 +1486,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1480,30 +1503,30 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1514,13 +1537,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1531,13 +1554,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1548,13 +1571,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1565,18 +1588,35 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
     </row>
@@ -1587,7 +1627,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1604,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1612,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>93102</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1626,13 +1666,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>45157</v>
+        <v>48498</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1640,13 +1680,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>43952</v>
+        <v>46096</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1654,13 +1694,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>42306</v>
+        <v>43757</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1668,13 +1708,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>38900</v>
+        <v>40631</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1682,13 +1722,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>38572</v>
+        <v>39568</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1696,13 +1736,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>36726</v>
+        <v>38177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1710,139 +1750,139 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>26988</v>
+        <v>28082</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>21182</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>19576</v>
+        <v>22314</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>16224</v>
+        <v>21946</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>14543</v>
+        <v>16823</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>14471</v>
+        <v>16249</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>14077</v>
+        <v>15067</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>12234</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>11661</v>
+        <v>13027</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
       </c>
       <c r="D18">
-        <v>10499</v>
+        <v>12141</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1850,41 +1890,41 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>10327</v>
+        <v>11429</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
       </c>
       <c r="D20">
-        <v>9613</v>
+        <v>11287</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>7270</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1892,66 +1932,66 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>6695</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>6148</v>
+        <v>7034</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>6106</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1959,15 +1999,29 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
@@ -1978,7 +2032,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1994,82 +2048,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>2828896</v>
+        <v>3053284</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>2828896</v>
+        <v>3053284</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>2828896</v>
+        <v>3053284</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B5">
-        <v>911858</v>
+        <v>956690</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>911858</v>
+        <v>956690</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>911858</v>
+        <v>956690</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>818284</v>
+        <v>836712</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B9">
-        <v>818284</v>
+        <v>836712</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B10">
-        <v>770947</v>
+        <v>792358</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>770947</v>
+        <v>792358</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2077,15 +2131,15 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>374494</v>
+        <v>380561</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B13">
-        <v>261166</v>
+        <v>264750</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2093,23 +2147,23 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>230559</v>
+        <v>244139</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15">
-        <v>209364</v>
+        <v>214666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B16">
-        <v>209364</v>
+        <v>214666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2117,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>168090</v>
+        <v>178658</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2125,39 +2179,39 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>144929</v>
+        <v>151344</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>140874</v>
+        <v>147265</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>139864</v>
+        <v>144990</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B21">
-        <v>130431</v>
+        <v>136895</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B22">
-        <v>130431</v>
+        <v>136895</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2165,47 +2219,47 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>128523</v>
+        <v>134017</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24">
-        <v>118467</v>
+        <v>122281</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25">
-        <v>118467</v>
+        <v>122281</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26">
-        <v>118467</v>
+        <v>122281</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27">
-        <v>107414</v>
+        <v>110736</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28">
-        <v>107414</v>
+        <v>110736</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2213,23 +2267,23 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>101287</v>
+        <v>104129</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B30">
-        <v>94967</v>
+        <v>97447</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B31">
-        <v>94967</v>
+        <v>97447</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2237,71 +2291,71 @@
         <v>21</v>
       </c>
       <c r="B32">
-        <v>81167</v>
+        <v>85252</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B33">
-        <v>75664</v>
+        <v>78802</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B34">
-        <v>75664</v>
+        <v>78802</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B35">
-        <v>64200</v>
+        <v>68463</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B36">
-        <v>64200</v>
+        <v>68463</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B37">
-        <v>64200</v>
+        <v>68463</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B38">
-        <v>64200</v>
+        <v>68463</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>64200</v>
+        <v>68463</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B40">
-        <v>64200</v>
+        <v>68463</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2309,7 +2363,7 @@
         <v>24</v>
       </c>
       <c r="B41">
-        <v>37237</v>
+        <v>53836</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2317,71 +2371,79 @@
         <v>25</v>
       </c>
       <c r="B42">
-        <v>32930</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>21573</v>
+        <v>33734</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B44">
-        <v>21573</v>
+        <v>22339</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B45">
-        <v>13444</v>
+        <v>22339</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B46">
-        <v>13444</v>
+        <v>13612</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B47">
-        <v>13444</v>
+        <v>13612</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B48">
-        <v>2942</v>
+        <v>13612</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49">
-        <v>2942</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B50">
-        <v>1099</v>
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2453,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2413,32 +2475,32 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2446,48 +2508,48 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>42</v>
@@ -2498,7 +2560,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>42</v>
@@ -2509,7 +2571,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -2520,7 +2582,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B12">
         <v>27</v>
@@ -2531,7 +2593,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B13">
         <v>27</v>
@@ -2545,10 +2607,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2564,7 +2626,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -2575,7 +2637,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -2586,7 +2648,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -2597,7 +2659,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -2608,7 +2670,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2619,7 +2681,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -2630,7 +2692,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -2641,7 +2703,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -2652,7 +2714,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2663,7 +2725,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -2674,7 +2736,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -2685,7 +2747,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -2696,7 +2758,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2707,7 +2769,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2718,7 +2780,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2729,7 +2791,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2740,7 +2802,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2751,7 +2813,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -2762,7 +2824,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -2773,18 +2835,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2795,7 +2857,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2806,7 +2868,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2817,7 +2879,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2828,7 +2890,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2839,7 +2901,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2850,7 +2912,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2861,18 +2923,18 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2883,7 +2945,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2894,7 +2956,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2905,7 +2967,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2916,7 +2978,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2927,7 +2989,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2938,12 +3000,23 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
         <v>0</v>
       </c>
     </row>
@@ -2954,7 +3027,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2965,31 +3038,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>93102</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>93102</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>93102</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2997,31 +3070,31 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>58476</v>
+        <v>62577</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B6">
-        <v>45157</v>
+        <v>48498</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7">
-        <v>45157</v>
+        <v>48498</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B8">
-        <v>45157</v>
+        <v>48498</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3029,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>43952</v>
+        <v>46096</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3037,47 +3110,47 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>42306</v>
+        <v>43757</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B11">
-        <v>38900</v>
+        <v>40631</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12">
-        <v>38572</v>
+        <v>39568</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13">
-        <v>38572</v>
+        <v>39568</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14">
-        <v>36726</v>
+        <v>38177</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15">
-        <v>36726</v>
+        <v>38177</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3085,119 +3158,119 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>26988</v>
+        <v>28082</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>21182</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18">
-        <v>21182</v>
+        <v>22314</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19">
-        <v>16224</v>
+        <v>22314</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20">
-        <v>16224</v>
+        <v>16823</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B21">
-        <v>14543</v>
+        <v>16823</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22">
-        <v>14543</v>
+        <v>16249</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B23">
-        <v>14471</v>
+        <v>16249</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>14077</v>
+        <v>15067</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>12234</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B26">
-        <v>12234</v>
+        <v>13027</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B27">
-        <v>11661</v>
+        <v>13027</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28">
-        <v>11661</v>
+        <v>12141</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B29">
-        <v>11661</v>
+        <v>12141</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B30">
-        <v>10499</v>
+        <v>12141</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3205,108 +3278,108 @@
         <v>21</v>
       </c>
       <c r="B31">
-        <v>10327</v>
+        <v>11429</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>9613</v>
+        <v>11287</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B33">
-        <v>9613</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B34">
-        <v>9613</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B35">
-        <v>7270</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36">
-        <v>7270</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37">
-        <v>6695</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38">
-        <v>6695</v>
+        <v>7034</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39">
-        <v>6695</v>
+        <v>7034</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B40">
-        <v>6148</v>
+        <v>7034</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41">
-        <v>6106</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42">
-        <v>6106</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3314,7 +3387,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3322,7 +3395,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3330,7 +3403,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3338,7 +3411,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3346,7 +3419,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3354,9 +3427,17 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>0</v>
       </c>
     </row>
@@ -3367,7 +3448,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3383,106 +3464,114 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>3261236</v>
+        <v>3501978</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B3">
-        <v>2828896</v>
+        <v>3053284</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4">
-        <v>2501089</v>
+        <v>2585760</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>310689</v>
+        <v>324034</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B6">
-        <v>261166</v>
+        <v>264750</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7">
-        <v>261166</v>
+        <v>264750</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>230937</v>
+        <v>244139</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>230559</v>
+        <v>237005</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10">
-        <v>187248</v>
+        <v>192336</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B11">
-        <v>118467</v>
+        <v>122281</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12">
-        <v>118467</v>
+        <v>122281</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>13444</v>
+        <v>53836</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B14">
-        <v>1099</v>
+        <v>13612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -3492,7 +3581,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3503,37 +3592,37 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C2">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C3">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>62</v>
@@ -3544,7 +3633,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>27</v>
@@ -3555,7 +3644,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -3566,7 +3655,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -3577,7 +3666,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -3588,7 +3677,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3599,7 +3688,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -3610,7 +3699,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -3621,13 +3710,13 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3635,20 +3724,31 @@
         <v>59</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -3659,7 +3759,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3670,111 +3770,119 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>158730</v>
+        <v>172534</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3">
-        <v>120455</v>
+        <v>126243</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B4">
-        <v>93102</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>83765</v>
+        <v>86906</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>43952</v>
+        <v>46096</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B7">
-        <v>38900</v>
+        <v>40631</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B8">
-        <v>38900</v>
+        <v>40631</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B9">
-        <v>19504</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>17194</v>
+        <v>20910</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>9613</v>
+        <v>18321</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B12">
-        <v>9613</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13">
-        <v>6695</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B14">
-        <v>6148</v>
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>6592</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="123">
   <si>
     <t>Artist</t>
   </si>
@@ -48,12 +48,12 @@
     <t>Subshock &amp; Evangelos, MIDNIGHT CVLT</t>
   </si>
   <si>
+    <t>Porter Robinson</t>
+  </si>
+  <si>
     <t>Tiësto, SWACQ</t>
   </si>
   <si>
-    <t>Porter Robinson</t>
-  </si>
-  <si>
     <t>SICK INDIVIDUALS, EKKO</t>
   </si>
   <si>
@@ -81,6 +81,9 @@
     <t>Aiobahn, Mick Mazoo</t>
   </si>
   <si>
+    <t>Valy Mo, Highup</t>
+  </si>
+  <si>
     <t>insaneintherainmusic</t>
   </si>
   <si>
@@ -129,12 +132,12 @@
     <t>Beyond The Skies</t>
   </si>
   <si>
+    <t>Blossom</t>
+  </si>
+  <si>
     <t>The Business (SWACQ Remix)</t>
   </si>
   <si>
-    <t>Blossom</t>
-  </si>
-  <si>
     <t>Flame</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
     <t>Never Go Back</t>
   </si>
   <si>
+    <t>The Rise</t>
+  </si>
+  <si>
     <t>Gangplank Galleon</t>
   </si>
   <si>
@@ -204,12 +210,12 @@
     <t>NCS</t>
   </si>
   <si>
+    <t>MOM+POP</t>
+  </si>
+  <si>
     <t>Musical Freedom, Atlantic Records</t>
   </si>
   <si>
-    <t>MOM+POP</t>
-  </si>
-  <si>
     <t>Revealed Music</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
     <t>Spinnin' NEXT, Spinnin' Records</t>
   </si>
   <si>
+    <t>Musical Freedom, Spinnin' Records</t>
+  </si>
+  <si>
     <t>Lost In Dreams</t>
   </si>
   <si>
@@ -309,6 +318,12 @@
     <t>Mick Mazoo</t>
   </si>
   <si>
+    <t>Highup</t>
+  </si>
+  <si>
+    <t>Valy Mo</t>
+  </si>
+  <si>
     <t>CRVN</t>
   </si>
   <si>
@@ -363,16 +378,16 @@
     <t>Hollywood Records</t>
   </si>
   <si>
+    <t>Musical Freedom</t>
+  </si>
+  <si>
     <t>Atlantic Records</t>
   </si>
   <si>
-    <t>Musical Freedom</t>
+    <t>Spinnin' Records</t>
   </si>
   <si>
     <t>Spinnin' NEXT</t>
-  </si>
-  <si>
-    <t>Spinnin' Records</t>
   </si>
   <si>
     <t>GenerationHEX</t>
@@ -733,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -758,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>3053284</v>
+        <v>3357020</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -772,13 +787,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>956690</v>
+        <v>1008235</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -786,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>836712</v>
+        <v>859313</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -800,13 +815,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>792358</v>
+        <v>818971</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -814,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>264750</v>
+        <v>268989</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -828,13 +843,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>244139</v>
+        <v>268792</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -842,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>214666</v>
+        <v>221486</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -856,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>178658</v>
+        <v>191967</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -870,13 +885,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>151344</v>
+        <v>159396</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -884,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>144990</v>
+        <v>149728</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -898,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>136895</v>
+        <v>142981</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -912,13 +927,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>134017</v>
+        <v>140349</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -926,13 +941,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>122281</v>
+        <v>126438</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -940,13 +955,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>115811</v>
+        <v>118760</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -954,13 +969,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>110736</v>
+        <v>114343</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -968,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>104129</v>
+        <v>113117</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -982,13 +997,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>97447</v>
+        <v>107808</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -996,13 +1011,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>85252</v>
+        <v>100479</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1010,13 +1025,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>78802</v>
+        <v>90254</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1024,13 +1039,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>68463</v>
+        <v>82539</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1038,13 +1053,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>53836</v>
+        <v>73395</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1052,13 +1067,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>38673</v>
+        <v>55753</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1066,13 +1081,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24">
-        <v>33734</v>
+        <v>40133</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1080,13 +1095,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>22339</v>
+        <v>34724</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1094,13 +1109,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D26">
-        <v>13612</v>
+        <v>23413</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1108,13 +1123,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D27">
-        <v>3148</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1122,13 +1137,27 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>1207</v>
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29">
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1155,10 +1184,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1166,16 +1195,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1183,299 +1212,299 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>79</v>
       </c>
       <c r="E3">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1486,10 +1515,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
@@ -1503,13 +1532,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1520,30 +1549,30 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1554,13 +1583,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1571,13 +1600,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1588,13 +1617,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1605,18 +1634,35 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
     </row>
@@ -1627,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1644,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1652,13 +1698,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>100596</v>
+        <v>112213</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1666,27 +1712,27 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>48498</v>
+        <v>52422</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>46096</v>
+        <v>49079</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1694,27 +1740,27 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>43757</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>40631</v>
+        <v>42697</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1722,13 +1768,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>39568</v>
+        <v>40699</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1736,13 +1782,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>38177</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1750,69 +1796,69 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>28082</v>
+        <v>29563</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
       </c>
       <c r="D10">
-        <v>23025</v>
+        <v>24825</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>22314</v>
+        <v>23948</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>21946</v>
+        <v>23477</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>16823</v>
+        <v>18866</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1820,125 +1866,125 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>16249</v>
+        <v>18706</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>15067</v>
+        <v>17687</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>14861</v>
+        <v>15744</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>13027</v>
+        <v>15743</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>12141</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>11429</v>
+        <v>12770</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
       </c>
       <c r="D20">
-        <v>11287</v>
+        <v>12758</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>67</v>
       </c>
       <c r="D21">
-        <v>9894</v>
+        <v>12236</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>7883</v>
+        <v>10193</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1946,66 +1992,66 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>7034</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>6884</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>6592</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2013,15 +2059,29 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
@@ -2032,7 +2092,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2048,82 +2108,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2">
-        <v>3053284</v>
+        <v>3357020</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>3053284</v>
+        <v>3357020</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4">
-        <v>3053284</v>
+        <v>3357020</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>956690</v>
+        <v>1008235</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B6">
-        <v>956690</v>
+        <v>1008235</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7">
-        <v>956690</v>
+        <v>1008235</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B8">
-        <v>836712</v>
+        <v>859313</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B9">
-        <v>836712</v>
+        <v>859313</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B10">
-        <v>792358</v>
+        <v>818971</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B11">
-        <v>792358</v>
+        <v>818971</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2131,39 +2191,39 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>380561</v>
+        <v>387552</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>264750</v>
+        <v>268989</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B14">
-        <v>244139</v>
+        <v>268792</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B15">
-        <v>214666</v>
+        <v>221486</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B16">
-        <v>214666</v>
+        <v>221486</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2171,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>178658</v>
+        <v>191967</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2179,15 +2239,15 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>151344</v>
+        <v>159396</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B19">
-        <v>147265</v>
+        <v>155934</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2195,23 +2255,23 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>144990</v>
+        <v>149728</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21">
-        <v>136895</v>
+        <v>142981</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22">
-        <v>136895</v>
+        <v>142981</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2219,231 +2279,247 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>134017</v>
+        <v>140349</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24">
-        <v>122281</v>
+        <v>126438</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25">
-        <v>122281</v>
+        <v>126438</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26">
-        <v>122281</v>
+        <v>126438</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27">
-        <v>110736</v>
+        <v>114343</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28">
-        <v>110736</v>
+        <v>114343</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B29">
-        <v>104129</v>
+        <v>113117</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B30">
-        <v>97447</v>
+        <v>113117</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>97447</v>
+        <v>107808</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <v>85252</v>
+        <v>100479</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B33">
-        <v>78802</v>
+        <v>100479</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>78802</v>
+        <v>90254</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B35">
-        <v>68463</v>
+        <v>82539</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B36">
-        <v>68463</v>
+        <v>82539</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B37">
-        <v>68463</v>
+        <v>73395</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B38">
-        <v>68463</v>
+        <v>73395</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B39">
-        <v>68463</v>
+        <v>73395</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B40">
-        <v>68463</v>
+        <v>73395</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B41">
-        <v>53836</v>
+        <v>73395</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B42">
-        <v>38673</v>
+        <v>73395</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>33734</v>
+        <v>55753</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>22339</v>
+        <v>40133</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>22339</v>
+        <v>34724</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B46">
-        <v>13612</v>
+        <v>23413</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B47">
-        <v>13612</v>
+        <v>23413</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B48">
-        <v>13612</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B49">
-        <v>3148</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B50">
-        <v>3148</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B51">
-        <v>1207</v>
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2529,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2464,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2475,32 +2551,32 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>79</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>79</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2508,180 +2584,180 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -2692,29 +2768,29 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2725,40 +2801,40 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2769,7 +2845,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2780,7 +2856,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2791,7 +2867,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2802,7 +2878,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2813,62 +2889,62 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2879,7 +2955,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2890,7 +2966,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2901,7 +2977,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2912,7 +2988,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2923,7 +2999,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2934,29 +3010,29 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2967,7 +3043,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2978,7 +3054,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2989,7 +3065,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3000,7 +3076,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3011,12 +3087,34 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
         <v>0</v>
       </c>
     </row>
@@ -3027,7 +3125,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3038,31 +3136,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2">
-        <v>100596</v>
+        <v>112213</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>100596</v>
+        <v>112213</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4">
-        <v>100596</v>
+        <v>112213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3070,39 +3168,39 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>62577</v>
+        <v>67522</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B6">
-        <v>48498</v>
+        <v>52422</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>48498</v>
+        <v>52422</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B8">
-        <v>48498</v>
+        <v>52422</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>46096</v>
+        <v>49079</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3110,47 +3208,47 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>43757</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B11">
-        <v>40631</v>
+        <v>42697</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B12">
-        <v>39568</v>
+        <v>40699</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B13">
-        <v>39568</v>
+        <v>40699</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14">
-        <v>38177</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15">
-        <v>38177</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3158,135 +3256,135 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>28082</v>
+        <v>29563</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>23025</v>
+        <v>23948</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B18">
-        <v>22314</v>
+        <v>23477</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B19">
-        <v>22314</v>
+        <v>23477</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B20">
-        <v>16823</v>
+        <v>18866</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B21">
-        <v>16823</v>
+        <v>18866</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22">
-        <v>16249</v>
+        <v>18706</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23">
-        <v>16249</v>
+        <v>18706</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B24">
-        <v>15067</v>
+        <v>17687</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B25">
-        <v>14861</v>
+        <v>17687</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>13027</v>
+        <v>15744</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>13027</v>
+        <v>15743</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B28">
-        <v>12141</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B29">
-        <v>12141</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>12141</v>
+        <v>12770</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B31">
-        <v>11429</v>
+        <v>12758</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B32">
-        <v>11287</v>
+        <v>12758</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3294,108 +3392,108 @@
         <v>90</v>
       </c>
       <c r="B33">
-        <v>9894</v>
+        <v>12758</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>9894</v>
+        <v>12236</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B35">
-        <v>9894</v>
+        <v>10193</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B36">
-        <v>7883</v>
+        <v>10193</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B37">
-        <v>7883</v>
+        <v>10193</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B38">
-        <v>7034</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B39">
-        <v>7034</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B40">
-        <v>7034</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B41">
-        <v>6884</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42">
-        <v>6884</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B43">
-        <v>6592</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3403,7 +3501,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3411,7 +3509,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3419,7 +3517,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3427,7 +3525,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3435,9 +3533,25 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
     </row>
@@ -3464,114 +3578,114 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>3501978</v>
+        <v>3823358</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B3">
-        <v>3053284</v>
+        <v>3357020</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <v>2585760</v>
+        <v>2686519</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B5">
-        <v>324034</v>
+        <v>381909</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>264750</v>
+        <v>339878</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>264750</v>
+        <v>268989</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B8">
-        <v>244139</v>
+        <v>268792</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>237005</v>
+        <v>244899</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B10">
-        <v>192336</v>
+        <v>239555</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>122281</v>
+        <v>198326</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <v>122281</v>
+        <v>126438</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13">
-        <v>53836</v>
+        <v>55753</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B14">
-        <v>13612</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>1207</v>
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -3592,54 +3706,54 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C2">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C4">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3647,48 +3761,48 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -3699,7 +3813,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -3710,7 +3824,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -3721,7 +3835,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -3732,7 +3846,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3743,7 +3857,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3770,119 +3884,119 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>172534</v>
+        <v>191991</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>126243</v>
+        <v>132875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B4">
-        <v>100596</v>
+        <v>112213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>86906</v>
+        <v>90783</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B6">
-        <v>46096</v>
+        <v>61563</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>40631</v>
+        <v>49079</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B8">
-        <v>40631</v>
+        <v>42697</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B9">
-        <v>23025</v>
+        <v>29059</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>20910</v>
+        <v>23948</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>18321</v>
+        <v>22496</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>9894</v>
+        <v>19672</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B13">
-        <v>9894</v>
+        <v>10193</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B14">
-        <v>7034</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>6592</v>
+        <v>7218</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -779,7 +779,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>3357020</v>
+        <v>4186662</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -793,7 +793,7 @@
         <v>61</v>
       </c>
       <c r="D3">
-        <v>1008235</v>
+        <v>1074877</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -807,7 +807,7 @@
         <v>61</v>
       </c>
       <c r="D4">
-        <v>859313</v>
+        <v>886411</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -821,7 +821,7 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>818971</v>
+        <v>851954</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -835,7 +835,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>268989</v>
+        <v>292698</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -849,7 +849,7 @@
         <v>63</v>
       </c>
       <c r="D7">
-        <v>268792</v>
+        <v>274187</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -863,7 +863,7 @@
         <v>64</v>
       </c>
       <c r="D8">
-        <v>221486</v>
+        <v>229320</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -877,7 +877,7 @@
         <v>65</v>
       </c>
       <c r="D9">
-        <v>191967</v>
+        <v>209393</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -891,7 +891,7 @@
         <v>66</v>
       </c>
       <c r="D10">
-        <v>159396</v>
+        <v>168485</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -905,7 +905,7 @@
         <v>67</v>
       </c>
       <c r="D11">
-        <v>149728</v>
+        <v>155585</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -919,7 +919,7 @@
         <v>68</v>
       </c>
       <c r="D12">
-        <v>142981</v>
+        <v>150631</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -933,7 +933,7 @@
         <v>66</v>
       </c>
       <c r="D13">
-        <v>140349</v>
+        <v>148414</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -947,7 +947,7 @@
         <v>69</v>
       </c>
       <c r="D14">
-        <v>126438</v>
+        <v>131146</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -961,7 +961,7 @@
         <v>68</v>
       </c>
       <c r="D15">
-        <v>118760</v>
+        <v>121790</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -975,7 +975,7 @@
         <v>68</v>
       </c>
       <c r="D16">
-        <v>114343</v>
+        <v>118788</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -989,7 +989,7 @@
         <v>70</v>
       </c>
       <c r="D17">
-        <v>113117</v>
+        <v>114925</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1003,7 +1003,7 @@
         <v>65</v>
       </c>
       <c r="D18">
-        <v>107808</v>
+        <v>111773</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1017,7 +1017,7 @@
         <v>65</v>
       </c>
       <c r="D19">
-        <v>100479</v>
+        <v>104102</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1031,7 +1031,7 @@
         <v>68</v>
       </c>
       <c r="D20">
-        <v>90254</v>
+        <v>96313</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1045,7 +1045,7 @@
         <v>65</v>
       </c>
       <c r="D21">
-        <v>82539</v>
+        <v>87277</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1059,7 +1059,7 @@
         <v>65</v>
       </c>
       <c r="D22">
-        <v>73395</v>
+        <v>78295</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1073,7 +1073,7 @@
         <v>71</v>
       </c>
       <c r="D23">
-        <v>55753</v>
+        <v>58143</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1087,7 +1087,7 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>40133</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1101,7 +1101,7 @@
         <v>67</v>
       </c>
       <c r="D25">
-        <v>34724</v>
+        <v>35898</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1115,7 +1115,7 @@
         <v>64</v>
       </c>
       <c r="D26">
-        <v>23413</v>
+        <v>24487</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1129,7 +1129,7 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <v>13874</v>
+        <v>14143</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1143,7 +1143,7 @@
         <v>65</v>
       </c>
       <c r="D28">
-        <v>3319</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1157,7 +1157,7 @@
         <v>73</v>
       </c>
       <c r="D29">
-        <v>1346</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -1201,10 +1201,10 @@
         <v>67</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1218,10 +1218,10 @@
         <v>68</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1235,44 +1235,44 @@
         <v>70</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
         <v>68</v>
       </c>
-      <c r="D6">
-        <v>64</v>
-      </c>
       <c r="E6">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1286,10 +1286,10 @@
         <v>68</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1303,10 +1303,10 @@
         <v>64</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>68</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>66</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>64</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1388,10 +1388,10 @@
         <v>63</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1704,7 +1704,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>112213</v>
+        <v>129152</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1718,7 +1718,7 @@
         <v>61</v>
       </c>
       <c r="D3">
-        <v>52422</v>
+        <v>57875</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1732,7 +1732,7 @@
         <v>62</v>
       </c>
       <c r="D4">
-        <v>49079</v>
+        <v>53590</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1746,7 +1746,7 @@
         <v>66</v>
       </c>
       <c r="D5">
-        <v>45476</v>
+        <v>47831</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1760,7 +1760,7 @@
         <v>63</v>
       </c>
       <c r="D6">
-        <v>42697</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1774,7 +1774,7 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>40699</v>
+        <v>42470</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1788,7 +1788,7 @@
         <v>61</v>
       </c>
       <c r="D8">
-        <v>39754</v>
+        <v>41889</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1802,7 +1802,7 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>29563</v>
+        <v>31307</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1816,7 +1816,7 @@
         <v>68</v>
       </c>
       <c r="D10">
-        <v>24825</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1830,7 +1830,7 @@
         <v>71</v>
       </c>
       <c r="D11">
-        <v>23948</v>
+        <v>25285</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1844,35 +1844,35 @@
         <v>68</v>
       </c>
       <c r="D12">
-        <v>23477</v>
+        <v>24945</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>18866</v>
+        <v>22267</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>18706</v>
+        <v>19430</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1886,35 +1886,35 @@
         <v>65</v>
       </c>
       <c r="D15">
-        <v>17687</v>
+        <v>18532</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>15744</v>
+        <v>17006</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>15743</v>
+        <v>16554</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1928,7 +1928,7 @@
         <v>64</v>
       </c>
       <c r="D18">
-        <v>13972</v>
+        <v>15057</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1942,7 +1942,7 @@
         <v>68</v>
       </c>
       <c r="D19">
-        <v>12770</v>
+        <v>14540</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1956,7 +1956,7 @@
         <v>65</v>
       </c>
       <c r="D20">
-        <v>12758</v>
+        <v>13629</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1970,7 +1970,7 @@
         <v>67</v>
       </c>
       <c r="D21">
-        <v>12236</v>
+        <v>13214</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1984,7 +1984,7 @@
         <v>69</v>
       </c>
       <c r="D22">
-        <v>10193</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1998,7 +1998,7 @@
         <v>64</v>
       </c>
       <c r="D23">
-        <v>8524</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2012,35 +2012,35 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>7603</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25">
-        <v>7436</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>7218</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2111,7 +2111,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>3357020</v>
+        <v>4186662</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>3357020</v>
+        <v>4186662</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>3357020</v>
+        <v>4186662</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1008235</v>
+        <v>1074877</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>1008235</v>
+        <v>1074877</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>1008235</v>
+        <v>1074877</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>859313</v>
+        <v>886411</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>84</v>
       </c>
       <c r="B9">
-        <v>859313</v>
+        <v>886411</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>85</v>
       </c>
       <c r="B10">
-        <v>818971</v>
+        <v>851954</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>86</v>
       </c>
       <c r="B11">
-        <v>818971</v>
+        <v>851954</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>387552</v>
+        <v>395977</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>268989</v>
+        <v>292698</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>87</v>
       </c>
       <c r="B14">
-        <v>268792</v>
+        <v>274187</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>88</v>
       </c>
       <c r="B15">
-        <v>221486</v>
+        <v>229320</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>89</v>
       </c>
       <c r="B16">
-        <v>221486</v>
+        <v>229320</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>191967</v>
+        <v>209393</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>159396</v>
+        <v>168485</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>90</v>
       </c>
       <c r="B19">
-        <v>155934</v>
+        <v>165572</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>149728</v>
+        <v>155585</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>91</v>
       </c>
       <c r="B21">
-        <v>142981</v>
+        <v>150631</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>92</v>
       </c>
       <c r="B22">
-        <v>142981</v>
+        <v>150631</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>140349</v>
+        <v>148414</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>93</v>
       </c>
       <c r="B24">
-        <v>126438</v>
+        <v>131146</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>94</v>
       </c>
       <c r="B25">
-        <v>126438</v>
+        <v>131146</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>95</v>
       </c>
       <c r="B26">
-        <v>126438</v>
+        <v>131146</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>96</v>
       </c>
       <c r="B27">
-        <v>114343</v>
+        <v>118788</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>97</v>
       </c>
       <c r="B28">
-        <v>114343</v>
+        <v>118788</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>98</v>
       </c>
       <c r="B29">
-        <v>113117</v>
+        <v>114925</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>99</v>
       </c>
       <c r="B30">
-        <v>113117</v>
+        <v>114925</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>107808</v>
+        <v>111773</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>100</v>
       </c>
       <c r="B32">
-        <v>100479</v>
+        <v>104102</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>101</v>
       </c>
       <c r="B33">
-        <v>100479</v>
+        <v>104102</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>22</v>
       </c>
       <c r="B34">
-        <v>90254</v>
+        <v>96313</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>102</v>
       </c>
       <c r="B35">
-        <v>82539</v>
+        <v>87277</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>103</v>
       </c>
       <c r="B36">
-        <v>82539</v>
+        <v>87277</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>104</v>
       </c>
       <c r="B37">
-        <v>73395</v>
+        <v>78295</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>105</v>
       </c>
       <c r="B38">
-        <v>73395</v>
+        <v>78295</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>106</v>
       </c>
       <c r="B39">
-        <v>73395</v>
+        <v>78295</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>107</v>
       </c>
       <c r="B40">
-        <v>73395</v>
+        <v>78295</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>108</v>
       </c>
       <c r="B41">
-        <v>73395</v>
+        <v>78295</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>109</v>
       </c>
       <c r="B42">
-        <v>73395</v>
+        <v>78295</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>25</v>
       </c>
       <c r="B43">
-        <v>55753</v>
+        <v>58143</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>26</v>
       </c>
       <c r="B44">
-        <v>40133</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>27</v>
       </c>
       <c r="B45">
-        <v>34724</v>
+        <v>35898</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>110</v>
       </c>
       <c r="B46">
-        <v>23413</v>
+        <v>24487</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>111</v>
       </c>
       <c r="B47">
-        <v>23413</v>
+        <v>24487</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>112</v>
       </c>
       <c r="B48">
-        <v>13874</v>
+        <v>14143</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>113</v>
       </c>
       <c r="B49">
-        <v>13874</v>
+        <v>14143</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>114</v>
       </c>
       <c r="B50">
-        <v>13874</v>
+        <v>14143</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>115</v>
       </c>
       <c r="B51">
-        <v>3319</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>116</v>
       </c>
       <c r="B52">
-        <v>3319</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>1346</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -2551,10 +2551,10 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>96</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>97</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>98</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2606,43 +2606,43 @@
         <v>99</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C9">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>88</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>89</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>110</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>111</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>87</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3144,7 +3144,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>112213</v>
+        <v>129152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>112213</v>
+        <v>129152</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>112213</v>
+        <v>129152</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>67522</v>
+        <v>73789</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>80</v>
       </c>
       <c r="B6">
-        <v>52422</v>
+        <v>57875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>81</v>
       </c>
       <c r="B7">
-        <v>52422</v>
+        <v>57875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>82</v>
       </c>
       <c r="B8">
-        <v>52422</v>
+        <v>57875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>49079</v>
+        <v>53590</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>45476</v>
+        <v>47831</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>87</v>
       </c>
       <c r="B11">
-        <v>42697</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>85</v>
       </c>
       <c r="B12">
-        <v>40699</v>
+        <v>42470</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>86</v>
       </c>
       <c r="B13">
-        <v>40699</v>
+        <v>42470</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>83</v>
       </c>
       <c r="B14">
-        <v>39754</v>
+        <v>41889</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>84</v>
       </c>
       <c r="B15">
-        <v>39754</v>
+        <v>41889</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>29563</v>
+        <v>31307</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>23948</v>
+        <v>25285</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>96</v>
       </c>
       <c r="B18">
-        <v>23477</v>
+        <v>24945</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3280,39 +3280,39 @@
         <v>97</v>
       </c>
       <c r="B19">
-        <v>23477</v>
+        <v>24945</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B20">
-        <v>18866</v>
+        <v>22267</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B21">
-        <v>18866</v>
+        <v>22267</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B22">
-        <v>18706</v>
+        <v>19430</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B23">
-        <v>18706</v>
+        <v>19430</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>100</v>
       </c>
       <c r="B24">
-        <v>17687</v>
+        <v>18532</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3328,23 +3328,23 @@
         <v>101</v>
       </c>
       <c r="B25">
-        <v>17687</v>
+        <v>18532</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>15744</v>
+        <v>17006</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>15743</v>
+        <v>16554</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3352,7 +3352,7 @@
         <v>88</v>
       </c>
       <c r="B28">
-        <v>13972</v>
+        <v>15057</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>89</v>
       </c>
       <c r="B29">
-        <v>13972</v>
+        <v>15057</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>22</v>
       </c>
       <c r="B30">
-        <v>12770</v>
+        <v>14540</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>102</v>
       </c>
       <c r="B31">
-        <v>12758</v>
+        <v>13629</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>103</v>
       </c>
       <c r="B32">
-        <v>12758</v>
+        <v>13629</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>90</v>
       </c>
       <c r="B33">
-        <v>12758</v>
+        <v>13629</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>27</v>
       </c>
       <c r="B34">
-        <v>12236</v>
+        <v>13214</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>93</v>
       </c>
       <c r="B35">
-        <v>10193</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="B36">
-        <v>10193</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>95</v>
       </c>
       <c r="B37">
-        <v>10193</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>110</v>
       </c>
       <c r="B38">
-        <v>8524</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>111</v>
       </c>
       <c r="B39">
-        <v>8524</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>115</v>
       </c>
       <c r="B40">
-        <v>7603</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3456,39 +3456,39 @@
         <v>116</v>
       </c>
       <c r="B41">
-        <v>7603</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>7436</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43">
-        <v>7436</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44">
-        <v>7436</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B45">
-        <v>7218</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>68</v>
       </c>
       <c r="B2">
-        <v>3823358</v>
+        <v>4674184</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>117</v>
       </c>
       <c r="B3">
-        <v>3357020</v>
+        <v>4186662</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>2686519</v>
+        <v>2813242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>118</v>
       </c>
       <c r="B5">
-        <v>381909</v>
+        <v>389112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>339878</v>
+        <v>358720</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>62</v>
       </c>
       <c r="B7">
-        <v>268989</v>
+        <v>292698</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>119</v>
       </c>
       <c r="B8">
-        <v>268792</v>
+        <v>274187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>244899</v>
+        <v>253807</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3645,7 +3645,7 @@
         <v>120</v>
       </c>
       <c r="B10">
-        <v>239555</v>
+        <v>246071</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3653,7 +3653,7 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <v>198326</v>
+        <v>205626</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>121</v>
       </c>
       <c r="B12">
-        <v>126438</v>
+        <v>131146</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>71</v>
       </c>
       <c r="B13">
-        <v>55753</v>
+        <v>58143</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>122</v>
       </c>
       <c r="B14">
-        <v>13874</v>
+        <v>14143</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>73</v>
       </c>
       <c r="B15">
-        <v>1346</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -3717,10 +3717,10 @@
         <v>68</v>
       </c>
       <c r="B2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C2">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>67</v>
       </c>
       <c r="B3">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C3">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>118</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>119</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3892,7 +3892,7 @@
         <v>68</v>
       </c>
       <c r="B2">
-        <v>191991</v>
+        <v>219504</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3900,7 +3900,7 @@
         <v>61</v>
       </c>
       <c r="B3">
-        <v>132875</v>
+        <v>142234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3908,7 +3908,7 @@
         <v>117</v>
       </c>
       <c r="B4">
-        <v>112213</v>
+        <v>129152</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3916,7 +3916,7 @@
         <v>66</v>
       </c>
       <c r="B5">
-        <v>90783</v>
+        <v>95692</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3924,7 +3924,7 @@
         <v>118</v>
       </c>
       <c r="B6">
-        <v>61563</v>
+        <v>64619</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3932,7 +3932,7 @@
         <v>62</v>
       </c>
       <c r="B7">
-        <v>49079</v>
+        <v>53590</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3940,7 +3940,7 @@
         <v>119</v>
       </c>
       <c r="B8">
-        <v>42697</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3948,7 +3948,7 @@
         <v>120</v>
       </c>
       <c r="B9">
-        <v>29059</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3956,7 +3956,7 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>23948</v>
+        <v>25285</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3964,7 +3964,7 @@
         <v>64</v>
       </c>
       <c r="B11">
-        <v>22496</v>
+        <v>24310</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3972,7 +3972,7 @@
         <v>67</v>
       </c>
       <c r="B12">
-        <v>19672</v>
+        <v>21129</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3980,23 +3980,23 @@
         <v>121</v>
       </c>
       <c r="B13">
-        <v>10193</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B14">
-        <v>7436</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B15">
-        <v>7218</v>
+        <v>7915</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="133">
   <si>
     <t>Artist</t>
   </si>
@@ -39,6 +39,9 @@
     <t>AREA21, Martin Garrix, Maejor</t>
   </si>
   <si>
+    <t>SKAN, KRALE, M.I.M.E, Drama B</t>
+  </si>
+  <si>
     <t>SVRRIC, RUINDKID, Silent Child</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
     <t>Dirty Palm, CRVN</t>
   </si>
   <si>
+    <t>Tokyo Machine</t>
+  </si>
+  <si>
     <t>Janee</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
     <t>La La La</t>
   </si>
   <si>
+    <t>Glory (No Glory pt. II)</t>
+  </si>
+  <si>
     <t>Fall To My Grave</t>
   </si>
   <si>
@@ -135,6 +144,9 @@
     <t>Blossom</t>
   </si>
   <si>
+    <t>do-re-mi-fa-so-la-ti-do</t>
+  </si>
+  <si>
     <t>The Business (SWACQ Remix)</t>
   </si>
   <si>
@@ -174,6 +186,9 @@
     <t>Alibi</t>
   </si>
   <si>
+    <t>GRADIUS REMIX</t>
+  </si>
+  <si>
     <t>Can't Let You Go</t>
   </si>
   <si>
@@ -207,6 +222,9 @@
     <t>STMPD RCRDS, Hollywood Records</t>
   </si>
   <si>
+    <t>NONE</t>
+  </si>
+  <si>
     <t>NCS</t>
   </si>
   <si>
@@ -219,9 +237,6 @@
     <t>Revealed Music</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t>Monstercat</t>
   </si>
   <si>
@@ -237,6 +252,9 @@
     <t>Musical Freedom, Spinnin' Records</t>
   </si>
   <si>
+    <t>Konami Digital Entertainment</t>
+  </si>
+  <si>
     <t>Lost In Dreams</t>
   </si>
   <si>
@@ -262,6 +280,18 @@
   </si>
   <si>
     <t>Martin Garrix</t>
+  </si>
+  <si>
+    <t>Drama B</t>
+  </si>
+  <si>
+    <t>KRALE</t>
+  </si>
+  <si>
+    <t>M.I.M.E</t>
+  </si>
+  <si>
+    <t>SKAN</t>
   </si>
   <si>
     <t>RUINDKID</t>
@@ -748,7 +778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -773,13 +803,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>4186662</v>
+        <v>4644652</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -787,13 +817,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>1074877</v>
+        <v>1304248</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -801,13 +831,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>886411</v>
+        <v>1093116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -815,13 +845,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>851954</v>
+        <v>892980</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -829,13 +859,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>292698</v>
+        <v>860070</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -843,321 +873,363 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>274187</v>
+        <v>298544</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>229320</v>
+        <v>297331</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>209393</v>
+        <v>275577</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>168485</v>
+        <v>231539</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>155585</v>
+        <v>214426</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>150631</v>
+        <v>170746</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>148414</v>
+        <v>157268</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>131146</v>
+        <v>152363</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>121790</v>
+        <v>150318</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D16">
-        <v>118788</v>
+        <v>132429</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>114925</v>
+        <v>122569</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D18">
-        <v>111773</v>
+        <v>119939</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D19">
-        <v>104102</v>
+        <v>115438</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>96313</v>
+        <v>112708</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>87277</v>
+        <v>105030</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>78295</v>
+        <v>98137</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23">
-        <v>58143</v>
+        <v>98094</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
       </c>
       <c r="D24">
-        <v>41821</v>
+        <v>88528</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>35898</v>
+        <v>79598</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D26">
-        <v>24487</v>
+        <v>58803</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27">
-        <v>14143</v>
+        <v>42267</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D28">
-        <v>3554</v>
+        <v>36209</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>24816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29">
-        <v>1480</v>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>14222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>1517</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1184,123 +1256,123 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>69</v>
       </c>
       <c r="E4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>69</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>43</v>
@@ -1311,13 +1383,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -1328,13 +1400,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>27</v>
@@ -1345,13 +1417,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -1362,13 +1434,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>21</v>
@@ -1379,13 +1451,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1396,13 +1468,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1416,10 +1488,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -1430,13 +1502,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1447,16 +1519,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1464,53 +1536,53 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1518,27 +1590,27 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1549,13 +1621,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1566,19 +1638,19 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1586,27 +1658,27 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1617,13 +1689,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1634,13 +1706,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1651,18 +1723,69 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
     </row>
@@ -1673,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1690,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1698,139 +1821,139 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>129152</v>
+        <v>134351</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>57875</v>
+        <v>59239</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>53590</v>
+        <v>55847</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>47831</v>
+        <v>54523</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>45189</v>
+        <v>48420</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>42470</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>41889</v>
+        <v>42926</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>31307</v>
+        <v>42370</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>28600</v>
+        <v>34892</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
       </c>
       <c r="D11">
-        <v>25285</v>
+        <v>31687</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1838,27 +1961,27 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>24945</v>
+        <v>29388</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D13">
-        <v>22267</v>
+        <v>25589</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1866,222 +1989,264 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>19430</v>
+        <v>25331</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>18532</v>
+        <v>23105</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D16">
-        <v>17006</v>
+        <v>19567</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
       <c r="D17">
-        <v>16554</v>
+        <v>18758</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>15057</v>
+        <v>17347</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>14540</v>
+        <v>16735</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>13629</v>
+        <v>15328</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>13214</v>
+        <v>14881</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>10670</v>
+        <v>13867</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D23">
-        <v>9253</v>
+        <v>13465</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>8776</v>
+        <v>10766</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>7927</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D26">
-        <v>7915</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29">
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32">
         <v>0</v>
       </c>
     </row>
@@ -2092,7 +2257,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2108,418 +2273,458 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>4186662</v>
+        <v>4644652</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>4186662</v>
+        <v>4644652</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4">
-        <v>4186662</v>
+        <v>4644652</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B5">
-        <v>1074877</v>
+        <v>1304248</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>1074877</v>
+        <v>1304248</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>1074877</v>
+        <v>1304248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>886411</v>
+        <v>1304248</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B9">
-        <v>886411</v>
+        <v>1093116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>851954</v>
+        <v>1093116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B11">
-        <v>851954</v>
+        <v>1093116</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B12">
-        <v>395977</v>
+        <v>892980</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B13">
-        <v>292698</v>
+        <v>892980</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B14">
-        <v>274187</v>
+        <v>860070</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B15">
-        <v>229320</v>
+        <v>860070</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>229320</v>
+        <v>595875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>209393</v>
+        <v>398146</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B18">
-        <v>168485</v>
+        <v>275577</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B19">
-        <v>165572</v>
+        <v>231539</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B20">
-        <v>155585</v>
+        <v>231539</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>150631</v>
+        <v>214426</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>150631</v>
+        <v>170746</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B23">
-        <v>148414</v>
+        <v>168126</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>131146</v>
+        <v>157268</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B25">
-        <v>131146</v>
+        <v>152363</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B26">
-        <v>131146</v>
+        <v>152363</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>118788</v>
+        <v>150318</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B28">
-        <v>118788</v>
+        <v>132429</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B29">
-        <v>114925</v>
+        <v>132429</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B30">
-        <v>114925</v>
+        <v>132429</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="B31">
-        <v>111773</v>
+        <v>119939</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B32">
-        <v>104102</v>
+        <v>119939</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B33">
-        <v>104102</v>
+        <v>115438</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B34">
-        <v>96313</v>
+        <v>115438</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>87277</v>
+        <v>112708</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B36">
-        <v>87277</v>
+        <v>105030</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B37">
-        <v>78295</v>
+        <v>105030</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>78295</v>
+        <v>98137</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>78295</v>
+        <v>98094</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B40">
-        <v>78295</v>
+        <v>88528</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B41">
-        <v>78295</v>
+        <v>88528</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B42">
-        <v>78295</v>
+        <v>79598</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="B43">
-        <v>58143</v>
+        <v>79598</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B44">
-        <v>41821</v>
+        <v>79598</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B45">
-        <v>35898</v>
+        <v>79598</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B46">
-        <v>24487</v>
+        <v>79598</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B47">
-        <v>24487</v>
+        <v>79598</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>14143</v>
+        <v>58803</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>14143</v>
+        <v>42267</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>14143</v>
+        <v>36209</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B51">
-        <v>3554</v>
+        <v>24816</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B52">
-        <v>3554</v>
+        <v>24816</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B53">
-        <v>1480</v>
+        <v>14222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54">
+        <v>14222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55">
+        <v>14222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58">
+        <v>1517</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2734,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2540,70 +2745,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>69</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>69</v>
@@ -2614,18 +2819,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>69</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B9">
         <v>69</v>
@@ -2636,18 +2841,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>43</v>
@@ -2658,7 +2863,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>43</v>
@@ -2669,7 +2874,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B13">
         <v>28</v>
@@ -2680,7 +2885,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -2691,7 +2896,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B15">
         <v>28</v>
@@ -2702,7 +2907,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>27</v>
@@ -2713,7 +2918,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>22</v>
@@ -2724,7 +2929,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -2735,7 +2940,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -2746,7 +2951,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -2757,7 +2962,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -2768,7 +2973,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -2779,7 +2984,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -2790,7 +2995,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2801,7 +3006,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -2812,7 +3017,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2823,7 +3028,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -2834,10 +3039,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -2845,10 +3050,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2856,10 +3061,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2867,7 +3072,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2878,7 +3083,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2889,7 +3094,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -2900,7 +3105,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -2911,32 +3116,32 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -2944,40 +3149,40 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2988,7 +3193,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2999,7 +3204,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3010,7 +3215,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3021,7 +3226,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3032,29 +3237,29 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3065,7 +3270,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3076,7 +3281,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3087,7 +3292,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3098,7 +3303,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3109,12 +3314,67 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>0</v>
       </c>
     </row>
@@ -3125,7 +3385,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3136,396 +3396,396 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>129152</v>
+        <v>134351</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>129152</v>
+        <v>134351</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4">
-        <v>129152</v>
+        <v>134351</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>73789</v>
+        <v>110370</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>57875</v>
+        <v>75292</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B7">
-        <v>57875</v>
+        <v>59239</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B8">
-        <v>57875</v>
+        <v>59239</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>53590</v>
+        <v>59239</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>47831</v>
+        <v>48420</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B11">
-        <v>45189</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B12">
-        <v>42470</v>
+        <v>42926</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B13">
-        <v>42470</v>
+        <v>42926</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B14">
-        <v>41889</v>
+        <v>42370</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B15">
-        <v>41889</v>
+        <v>42370</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B16">
-        <v>31307</v>
+        <v>34892</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B17">
-        <v>25285</v>
+        <v>34892</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B18">
-        <v>24945</v>
+        <v>34892</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19">
-        <v>24945</v>
+        <v>34892</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>22267</v>
+        <v>31687</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>22267</v>
+        <v>25589</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B22">
-        <v>19430</v>
+        <v>25331</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B23">
-        <v>19430</v>
+        <v>25331</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>18532</v>
+        <v>23105</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>18532</v>
+        <v>23105</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="B26">
-        <v>17006</v>
+        <v>19567</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B27">
-        <v>16554</v>
+        <v>19567</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B28">
-        <v>15057</v>
+        <v>18758</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B29">
-        <v>15057</v>
+        <v>18758</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>14540</v>
+        <v>17347</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>13629</v>
+        <v>16735</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B32">
-        <v>13629</v>
+        <v>15328</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B33">
-        <v>13629</v>
+        <v>15328</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>13214</v>
+        <v>14881</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B35">
-        <v>10670</v>
+        <v>13867</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B36">
-        <v>10670</v>
+        <v>13867</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B37">
-        <v>10670</v>
+        <v>13867</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>9253</v>
+        <v>13465</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>9253</v>
+        <v>10766</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B40">
-        <v>8776</v>
+        <v>10766</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B41">
-        <v>8776</v>
+        <v>10766</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="B42">
-        <v>7927</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B43">
-        <v>7915</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B44">
-        <v>7915</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B45">
-        <v>7915</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3533,7 +3793,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3541,7 +3801,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3549,9 +3809,49 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
         <v>0</v>
       </c>
     </row>
@@ -3562,7 +3862,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3578,114 +3878,122 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2">
-        <v>4674184</v>
+        <v>5137617</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B3">
-        <v>4186662</v>
+        <v>4644652</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>2813242</v>
+        <v>2846166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>389112</v>
+        <v>595875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B6">
-        <v>358720</v>
+        <v>391015</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>292698</v>
+        <v>363331</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B8">
-        <v>274187</v>
+        <v>275577</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>253807</v>
+        <v>256355</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B10">
-        <v>246071</v>
+        <v>247867</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>205626</v>
+        <v>207699</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B12">
-        <v>131146</v>
+        <v>132429</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>58143</v>
+        <v>98137</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="B14">
-        <v>14143</v>
+        <v>58803</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B15">
-        <v>1480</v>
+        <v>14222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <v>1517</v>
       </c>
     </row>
   </sheetData>
@@ -3695,7 +4003,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3706,37 +4014,37 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C2">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C3">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>84</v>
@@ -3747,7 +4055,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>77</v>
@@ -3758,7 +4066,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -3769,7 +4077,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -3780,7 +4088,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>27</v>
@@ -3791,7 +4099,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -3802,7 +4110,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -3813,7 +4121,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -3824,10 +4132,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -3835,34 +4143,45 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
@@ -3873,7 +4192,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3884,119 +4203,127 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2">
-        <v>219504</v>
+        <v>227056</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>142234</v>
+        <v>144535</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B4">
-        <v>129152</v>
+        <v>134351</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>95692</v>
+        <v>110370</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>64619</v>
+        <v>96842</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="B7">
-        <v>53590</v>
+        <v>65471</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B8">
-        <v>45189</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B9">
-        <v>30100</v>
+        <v>30333</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B10">
-        <v>25285</v>
+        <v>25589</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>24310</v>
+        <v>24865</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B12">
-        <v>21129</v>
+        <v>21502</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B13">
-        <v>10670</v>
+        <v>10766</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B14">
-        <v>7927</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B15">
-        <v>7915</v>
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
